--- a/RB/RB_Analysis.xlsx
+++ b/RB/RB_Analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P210"/>
+  <dimension ref="A1:P202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,52 +521,52 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jahmyr Gibbs (DET)</t>
+          <t>Kyren Williams (LAR)</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>29.9</v>
+        <v>51.8</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E2" t="n">
-        <v>5.7</v>
+        <v>8.9</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>56.09999999999999</v>
+        <v>38.4</v>
       </c>
       <c r="H2" t="n">
-        <v>28</v>
+        <v>38.4</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K2" t="n">
-        <v>114.5</v>
+        <v>143</v>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P2" t="n">
-        <v>36</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3">
@@ -579,48 +579,48 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>26.3</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="H3" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>9 - 12</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K3" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="N3" t="n">
         <v>5.3</v>
       </c>
-      <c r="F3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" t="n">
-        <v>50</v>
-      </c>
-      <c r="H3" t="n">
-        <v>25</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>8 - 10</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>14</v>
-      </c>
-      <c r="K3" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N3" t="n">
-        <v>6</v>
-      </c>
       <c r="O3" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="P3" t="n">
-        <v>55.5</v>
+        <v>32.3</v>
       </c>
     </row>
     <row r="4">
@@ -629,52 +629,52 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rachaad White (TB)</t>
+          <t>Rhamondre Stevenson (NE)</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22.3</v>
+        <v>31</v>
       </c>
       <c r="D4" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E4" t="n">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>63.59999999999999</v>
+        <v>57.8</v>
       </c>
       <c r="H4" t="n">
-        <v>21.2</v>
+        <v>19.3</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>16.3</v>
+        <v>16.7</v>
       </c>
       <c r="K4" t="n">
-        <v>54.3</v>
+        <v>91</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M4" t="n">
         <v>0.7</v>
       </c>
       <c r="N4" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="P4" t="n">
-        <v>54.3</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="5">
@@ -683,52 +683,52 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Javonte Williams (DEN)</t>
+          <t>Jaylen Warren (PIT)</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22.1</v>
+        <v>28.7</v>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>3.4</v>
+        <v>7.6</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>39.8</v>
+        <v>64</v>
       </c>
       <c r="H5" t="n">
-        <v>19.9</v>
+        <v>16</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="K5" t="n">
-        <v>82</v>
+        <v>91.8</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N5" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="O5" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P5" t="n">
-        <v>22</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="6">
@@ -737,52 +737,52 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Austin Ekeler (LAC)</t>
+          <t>Josh Jacobs (LV)</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21.9</v>
+        <v>28.7</v>
       </c>
       <c r="D6" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>65.8</v>
+        <v>63.1</v>
       </c>
       <c r="H6" t="n">
-        <v>21.9</v>
+        <v>15.8</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>16</v>
+        <v>21.8</v>
       </c>
       <c r="K6" t="n">
-        <v>47.7</v>
+        <v>90.8</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3</v>
+        <v>1.8</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="N6" t="n">
-        <v>4.3</v>
+        <v>1.8</v>
       </c>
       <c r="O6" t="n">
-        <v>7.3</v>
+        <v>2.2</v>
       </c>
       <c r="P6" t="n">
-        <v>55</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="7">
@@ -791,52 +791,52 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Josh Jacobs (LV)</t>
+          <t>Bijan Robinson (ATL)</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21.2</v>
+        <v>26.7</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="F7" t="n">
         <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>51.3</v>
+        <v>50.8</v>
       </c>
       <c r="H7" t="n">
-        <v>17.1</v>
+        <v>16.9</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>22.7</v>
+        <v>16.3</v>
       </c>
       <c r="K7" t="n">
-        <v>91.7</v>
+        <v>79</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="N7" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="O7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P7" t="n">
-        <v>12.7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -849,48 +849,48 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>20.9</v>
+        <v>26.3</v>
       </c>
       <c r="D8" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="E8" t="n">
-        <v>9.699999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>17.6</v>
+        <v>50.50000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>17.6</v>
+        <v>16.8</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K8" t="n">
-        <v>116</v>
+        <v>87.7</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="9">
@@ -899,52 +899,52 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Saquon Barkley (NYG)</t>
+          <t>Raheem Mostert (MIA)</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>20.2</v>
+        <v>26.2</v>
       </c>
       <c r="D9" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E9" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="F9" t="n">
         <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>37.2</v>
+        <v>46.2</v>
       </c>
       <c r="H9" t="n">
-        <v>12.4</v>
+        <v>15.4</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>21.7</v>
+        <v>18</v>
       </c>
       <c r="K9" t="n">
-        <v>94.7</v>
+        <v>88.3</v>
       </c>
       <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O9" t="n">
         <v>1.3</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>2.3</v>
-      </c>
-      <c r="O9" t="n">
-        <v>4</v>
-      </c>
-      <c r="P9" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -953,52 +953,52 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Travis Etienne Jr. (JAC)</t>
+          <t>Devin Singletary (HOU)</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>19.5</v>
+        <v>26.1</v>
       </c>
       <c r="D10" t="n">
-        <v>15</v>
+        <v>-3</v>
       </c>
       <c r="E10" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10" t="n">
-        <v>32.3</v>
+        <v>60.7</v>
       </c>
       <c r="H10" t="n">
-        <v>16.2</v>
+        <v>15.2</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>16.5</v>
+        <v>17.8</v>
       </c>
       <c r="K10" t="n">
-        <v>57</v>
+        <v>76.5</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N10" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="O10" t="n">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P10" t="n">
-        <v>39.5</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="11">
@@ -1011,48 +1011,48 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>19.4</v>
+        <v>26</v>
       </c>
       <c r="D11" t="n">
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="E11" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11" t="n">
-        <v>49.3</v>
+        <v>68</v>
       </c>
       <c r="H11" t="n">
-        <v>16.4</v>
+        <v>17</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="K11" t="n">
-        <v>53.3</v>
+        <v>56.8</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="N11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O11" t="n">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="P11" t="n">
-        <v>47.7</v>
+        <v>48.2</v>
       </c>
     </row>
     <row r="12">
@@ -1061,52 +1061,52 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Rhamondre Stevenson (NE)</t>
+          <t>Rachaad White (TB)</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>18.5</v>
+        <v>25.8</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="E12" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G12" t="n">
-        <v>43.09999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="H12" t="n">
-        <v>14.4</v>
+        <v>19.1</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K12" t="n">
-        <v>71.3</v>
+        <v>63.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="N12" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="O12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P12" t="n">
-        <v>22.3</v>
+        <v>32.8</v>
       </c>
     </row>
     <row r="13">
@@ -1115,52 +1115,52 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Alvin Kamara (NO)</t>
+          <t>Saquon Barkley (NYG)</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>18.1</v>
+        <v>24.5</v>
       </c>
       <c r="D13" t="n">
-        <v>-9</v>
+        <v>-1</v>
       </c>
       <c r="E13" t="n">
-        <v>3.6</v>
+        <v>5.2</v>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G13" t="n">
-        <v>56.5</v>
+        <v>57.6</v>
       </c>
       <c r="H13" t="n">
-        <v>18.8</v>
+        <v>14.4</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>11.7</v>
+        <v>13.8</v>
       </c>
       <c r="K13" t="n">
-        <v>42.3</v>
+        <v>71.2</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M13" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="O13" t="n">
-        <v>5.7</v>
+        <v>3.8</v>
       </c>
       <c r="P13" t="n">
-        <v>42.7</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="14">
@@ -1169,52 +1169,52 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Keaton Mitchell (BAL)</t>
+          <t>Jahmyr Gibbs (DET)</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>18.1</v>
+        <v>24.5</v>
       </c>
       <c r="D14" t="n">
-        <v>8</v>
+        <v>-5</v>
       </c>
       <c r="E14" t="n">
-        <v>14.3</v>
+        <v>5.1</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G14" t="n">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="H14" t="n">
-        <v>17</v>
+        <v>19.7</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K14" t="n">
-        <v>86</v>
+        <v>55.7</v>
       </c>
       <c r="L14" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="O14" t="n">
-        <v>1.5</v>
+        <v>6.3</v>
       </c>
       <c r="P14" t="n">
-        <v>14</v>
+        <v>37.7</v>
       </c>
     </row>
     <row r="15">
@@ -1223,52 +1223,52 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Jaylen Warren (PIT)</t>
+          <t>James Cook (BUF)</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>16.9</v>
+        <v>23.4</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E15" t="n">
-        <v>6.7</v>
+        <v>4.8</v>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G15" t="n">
-        <v>41.1</v>
+        <v>55.09999999999999</v>
       </c>
       <c r="H15" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>10.3</v>
+        <v>12.8</v>
       </c>
       <c r="K15" t="n">
-        <v>69.3</v>
+        <v>61.2</v>
       </c>
       <c r="L15" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="O15" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P15" t="n">
-        <v>17.7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
@@ -1281,48 +1281,48 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>16.8</v>
+        <v>23.4</v>
       </c>
       <c r="D16" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="F16" t="n">
         <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>43.09999999999999</v>
+        <v>53.5</v>
       </c>
       <c r="H16" t="n">
-        <v>14.4</v>
+        <v>17.8</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>17.7</v>
+        <v>18.7</v>
       </c>
       <c r="K16" t="n">
-        <v>70.3</v>
+        <v>69</v>
       </c>
       <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
-      <c r="M16" t="n">
-        <v>0.3</v>
-      </c>
       <c r="N16" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O16" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="P16" t="n">
-        <v>10</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="17">
@@ -1331,52 +1331,52 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Derrick Henry (TEN)</t>
+          <t>Isiah Pacheco (KC)</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>16.7</v>
+        <v>23.3</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="F17" t="n">
         <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>38.4</v>
+        <v>42.59999999999999</v>
       </c>
       <c r="H17" t="n">
-        <v>12.8</v>
+        <v>14.2</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J17" t="n">
         <v>16.7</v>
       </c>
       <c r="K17" t="n">
-        <v>66.7</v>
+        <v>70</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M17" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="N17" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="O17" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="P17" t="n">
-        <v>14.7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
@@ -1385,52 +1385,52 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Breece Hall (NYJ)</t>
+          <t>D'Andre Swift (PHI)</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>16.2</v>
+        <v>23.2</v>
       </c>
       <c r="D18" t="n">
-        <v>-4</v>
+        <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="F18" t="n">
         <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>41.8</v>
+        <v>38.5</v>
       </c>
       <c r="H18" t="n">
-        <v>13.9</v>
+        <v>12.8</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>13.7</v>
+        <v>14.7</v>
       </c>
       <c r="K18" t="n">
-        <v>31.7</v>
+        <v>66.3</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N18" t="n">
-        <v>4.3</v>
+        <v>2</v>
       </c>
       <c r="O18" t="n">
-        <v>5.3</v>
+        <v>2</v>
       </c>
       <c r="P18" t="n">
-        <v>44.3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
@@ -1439,52 +1439,52 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Joe Mixon (CIN)</t>
+          <t>Najee Harris (PIT)</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>16.2</v>
+        <v>22.3</v>
       </c>
       <c r="D19" t="n">
-        <v>-11</v>
+        <v>-4</v>
       </c>
       <c r="E19" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G19" t="n">
-        <v>50.3</v>
+        <v>54.7</v>
       </c>
       <c r="H19" t="n">
-        <v>16.8</v>
+        <v>13.7</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>13.7</v>
+        <v>14.8</v>
       </c>
       <c r="K19" t="n">
-        <v>56.7</v>
+        <v>71.2</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="N19" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="O19" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="P19" t="n">
-        <v>17.7</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="20">
@@ -1493,14 +1493,14 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Najee Harris (PIT)</t>
+          <t>Alvin Kamara (NO)</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D20" t="n">
-        <v>-9</v>
+        <v>5</v>
       </c>
       <c r="E20" t="n">
         <v>4.2</v>
@@ -1509,36 +1509,36 @@
         <v>3</v>
       </c>
       <c r="G20" t="n">
-        <v>44.7</v>
+        <v>45.4</v>
       </c>
       <c r="H20" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K20" t="n">
-        <v>54.7</v>
+        <v>45.7</v>
       </c>
       <c r="L20" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="O20" t="n">
-        <v>4.3</v>
+        <v>5.7</v>
       </c>
       <c r="P20" t="n">
-        <v>21</v>
+        <v>42.3</v>
       </c>
     </row>
     <row r="21">
@@ -1547,37 +1547,37 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Emari Demercado (ARI)</t>
+          <t>Javonte Williams (DEN)</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>15.7</v>
+        <v>21.9</v>
       </c>
       <c r="D21" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="E21" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G21" t="n">
-        <v>8.9</v>
+        <v>38.4</v>
       </c>
       <c r="H21" t="n">
-        <v>8.9</v>
+        <v>12.8</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>20</v>
+        <v>16.7</v>
       </c>
       <c r="K21" t="n">
-        <v>78</v>
+        <v>60.3</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -1586,13 +1586,13 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>17.7</v>
       </c>
     </row>
     <row r="22">
@@ -1601,52 +1601,52 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Devin Singletary (HOU)</t>
+          <t>Austin Ekeler (LAC)</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>15.7</v>
+        <v>21.6</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="E22" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G22" t="n">
-        <v>34</v>
+        <v>58.9</v>
       </c>
       <c r="H22" t="n">
-        <v>11.3</v>
+        <v>14.7</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>17.7</v>
+        <v>13.2</v>
       </c>
       <c r="K22" t="n">
-        <v>68.7</v>
+        <v>52.5</v>
       </c>
       <c r="L22" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="N22" t="n">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="O22" t="n">
-        <v>2</v>
+        <v>5.8</v>
       </c>
       <c r="P22" t="n">
-        <v>8</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="23">
@@ -1655,52 +1655,52 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Bijan Robinson (ATL)</t>
+          <t>Jerome Ford (CLE)</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>15.4</v>
+        <v>21.5</v>
       </c>
       <c r="D23" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E23" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="F23" t="n">
+        <v>4</v>
+      </c>
+      <c r="G23" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="H23" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>9 - 12</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>61.8</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N23" t="n">
         <v>3</v>
       </c>
-      <c r="G23" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="H23" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>8 - 10</t>
-        </is>
-      </c>
-      <c r="J23" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K23" t="n">
-        <v>69.3</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="N23" t="n">
-        <v>1</v>
-      </c>
       <c r="O23" t="n">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="P23" t="n">
-        <v>6.3</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="24">
@@ -1709,52 +1709,52 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Jerome Ford (CLE)</t>
+          <t>Tony Pollard (DAL)</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>15.1</v>
+        <v>21.3</v>
       </c>
       <c r="D24" t="n">
+        <v>-11</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="F24" t="n">
         <v>4</v>
       </c>
-      <c r="E24" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="F24" t="n">
-        <v>3</v>
-      </c>
       <c r="G24" t="n">
-        <v>29.5</v>
+        <v>55.09999999999999</v>
       </c>
       <c r="H24" t="n">
-        <v>9.800000000000001</v>
+        <v>13.8</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>15.3</v>
+        <v>13</v>
       </c>
       <c r="K24" t="n">
-        <v>62.7</v>
+        <v>61.5</v>
       </c>
       <c r="L24" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N24" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="O24" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P24" t="n">
-        <v>12.3</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="25">
@@ -1763,52 +1763,52 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>D'Andre Swift (PHI)</t>
+          <t>Keaton Mitchell (BAL)</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>14.7</v>
+        <v>21.2</v>
       </c>
       <c r="D25" t="n">
-        <v>9</v>
+        <v>-4</v>
       </c>
       <c r="E25" t="n">
-        <v>2.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G25" t="n">
-        <v>23.8</v>
+        <v>50</v>
       </c>
       <c r="H25" t="n">
-        <v>11.9</v>
+        <v>12.5</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>17</v>
+        <v>7.2</v>
       </c>
       <c r="K25" t="n">
-        <v>50</v>
+        <v>67.2</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="M25" t="n">
         <v>0.5</v>
       </c>
       <c r="N25" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="O25" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="P25" t="n">
-        <v>19</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="26">
@@ -1817,52 +1817,52 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>James Cook (BUF)</t>
+          <t>Ty Chandler (MIN)</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>14.6</v>
+        <v>20.7</v>
       </c>
       <c r="D26" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E26" t="n">
-        <v>6.1</v>
+        <v>4.7</v>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
-        <v>28.2</v>
+        <v>25.5</v>
       </c>
       <c r="H26" t="n">
-        <v>9.4</v>
+        <v>12.8</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>10.7</v>
+        <v>12.5</v>
       </c>
       <c r="K26" t="n">
-        <v>65.3</v>
+        <v>59</v>
       </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N26" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O26" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="P26" t="n">
-        <v>12</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="27">
@@ -1871,52 +1871,52 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Aaron Jones (GB)</t>
+          <t>Joe Mixon (CIN)</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>14.5</v>
+        <v>18.6</v>
       </c>
       <c r="D27" t="n">
-        <v>-7</v>
+        <v>-19</v>
       </c>
       <c r="E27" t="n">
         <v>3.4</v>
       </c>
       <c r="F27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G27" t="n">
-        <v>35.9</v>
+        <v>59.3</v>
       </c>
       <c r="H27" t="n">
-        <v>12</v>
+        <v>14.8</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>13.3</v>
+        <v>12.2</v>
       </c>
       <c r="K27" t="n">
-        <v>45.7</v>
+        <v>42</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N27" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O27" t="n">
         <v>4</v>
       </c>
-      <c r="O27" t="n">
-        <v>5.7</v>
-      </c>
       <c r="P27" t="n">
-        <v>20.7</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="28">
@@ -1929,48 +1929,48 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>14.2</v>
+        <v>18.5</v>
       </c>
       <c r="D28" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E28" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="F28" t="n">
         <v>3</v>
       </c>
       <c r="G28" t="n">
-        <v>30.1</v>
+        <v>32.9</v>
       </c>
       <c r="H28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>16.7</v>
+        <v>15.7</v>
       </c>
       <c r="K28" t="n">
-        <v>65.7</v>
+        <v>59</v>
       </c>
       <c r="L28" t="n">
         <v>0.3</v>
       </c>
       <c r="M28" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="N28" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="O28" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="P28" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -1979,37 +1979,37 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>James Conner (ARI)</t>
+          <t>Alexander Mattison (MIN)</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>13.8</v>
+        <v>18.3</v>
       </c>
       <c r="D29" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="E29" t="n">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G29" t="n">
-        <v>7.3</v>
+        <v>28.6</v>
       </c>
       <c r="H29" t="n">
-        <v>7.3</v>
+        <v>9.5</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K29" t="n">
-        <v>73</v>
+        <v>50.7</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -2018,13 +2018,13 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
@@ -2033,52 +2033,52 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Kenneth Walker III (SEA)</t>
+          <t>Chuba Hubbard (CAR)</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>13.8</v>
+        <v>18</v>
       </c>
       <c r="D30" t="n">
         <v>-4</v>
       </c>
       <c r="E30" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="F30" t="n">
         <v>4</v>
       </c>
-      <c r="F30" t="n">
-        <v>3</v>
-      </c>
       <c r="G30" t="n">
-        <v>30.4</v>
+        <v>45.3</v>
       </c>
       <c r="H30" t="n">
-        <v>10.1</v>
+        <v>11.3</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="K30" t="n">
-        <v>48.3</v>
+        <v>45.8</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N30" t="n">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="O30" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="P30" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
@@ -2087,52 +2087,52 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Gus Edwards (BAL)</t>
+          <t>Derrick Henry (TEN)</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>13.2</v>
+        <v>17.9</v>
       </c>
       <c r="D31" t="n">
-        <v>-26</v>
+        <v>-8</v>
       </c>
       <c r="E31" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="F31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G31" t="n">
-        <v>56.39999999999999</v>
+        <v>48.2</v>
       </c>
       <c r="H31" t="n">
-        <v>18.8</v>
+        <v>12</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>11.7</v>
+        <v>14</v>
       </c>
       <c r="K31" t="n">
-        <v>52</v>
+        <v>53.2</v>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="P31" t="n">
-        <v>6</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="32">
@@ -2141,52 +2141,52 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Raheem Mostert (MIA)</t>
+          <t>Travis Etienne Jr. (JAC)</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>13.2</v>
+        <v>17.8</v>
       </c>
       <c r="D32" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E32" t="n">
-        <v>5.2</v>
+        <v>3.3</v>
       </c>
       <c r="F32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G32" t="n">
-        <v>25.1</v>
+        <v>27.9</v>
       </c>
       <c r="H32" t="n">
-        <v>12.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>12.5</v>
+        <v>14.3</v>
       </c>
       <c r="K32" t="n">
-        <v>65.5</v>
+        <v>47.7</v>
       </c>
       <c r="L32" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O32" t="n">
-        <v>0.5</v>
+        <v>4.3</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="33">
@@ -2195,52 +2195,52 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Darrell Henderson Jr. (LAR)</t>
+          <t>Royce Freeman (LAR)</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>12.1</v>
+        <v>17.5</v>
       </c>
       <c r="D33" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E33" t="n">
-        <v>2.3</v>
+        <v>4.3</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G33" t="n">
-        <v>17</v>
+        <v>24.2</v>
       </c>
       <c r="H33" t="n">
-        <v>8.5</v>
+        <v>8.1</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K33" t="n">
-        <v>25</v>
+        <v>60.7</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N33" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>2.5</v>
+        <v>0.3</v>
       </c>
       <c r="P33" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -2249,52 +2249,52 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Antonio Gibson (WAS)</t>
+          <t>AJ Dillon (GB)</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>12.1</v>
+        <v>17.3</v>
       </c>
       <c r="D34" t="n">
-        <v>-16</v>
+        <v>-2</v>
       </c>
       <c r="E34" t="n">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="F34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G34" t="n">
-        <v>38.3</v>
+        <v>35.6</v>
       </c>
       <c r="H34" t="n">
-        <v>12.8</v>
+        <v>8.9</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>4</v>
+        <v>11.5</v>
       </c>
       <c r="K34" t="n">
-        <v>20.3</v>
+        <v>45.5</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="O34" t="n">
-        <v>5.3</v>
+        <v>2.8</v>
       </c>
       <c r="P34" t="n">
-        <v>37.3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35">
@@ -2303,37 +2303,37 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Tony Pollard (DAL)</t>
+          <t>Breece Hall (NYJ)</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>11.6</v>
+        <v>17</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>-16</v>
       </c>
       <c r="E35" t="n">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
       <c r="F35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G35" t="n">
-        <v>21.3</v>
+        <v>50.7</v>
       </c>
       <c r="H35" t="n">
-        <v>7.1</v>
+        <v>12.7</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="K35" t="n">
-        <v>53</v>
+        <v>31.5</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -2342,13 +2342,13 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1.3</v>
+        <v>4.8</v>
       </c>
       <c r="O35" t="n">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="P35" t="n">
-        <v>4.7</v>
+        <v>32.8</v>
       </c>
     </row>
     <row r="36">
@@ -2357,52 +2357,52 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Chuba Hubbard (CAR)</t>
+          <t>James Conner (ARI)</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>11.5</v>
+        <v>16.4</v>
       </c>
       <c r="D36" t="n">
-        <v>-3</v>
+        <v>10</v>
       </c>
       <c r="E36" t="n">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="F36" t="n">
         <v>3</v>
       </c>
       <c r="G36" t="n">
-        <v>24</v>
+        <v>22.8</v>
       </c>
       <c r="H36" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>13.3</v>
+        <v>12</v>
       </c>
       <c r="K36" t="n">
-        <v>36.3</v>
+        <v>54</v>
       </c>
       <c r="L36" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
+        <v>2</v>
+      </c>
+      <c r="O36" t="n">
         <v>2.7</v>
       </c>
-      <c r="O36" t="n">
-        <v>3.3</v>
-      </c>
       <c r="P36" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -2411,52 +2411,52 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>AJ Dillon (GB)</t>
+          <t>Aaron Jones (GB)</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>11.4</v>
+        <v>16.2</v>
       </c>
       <c r="D37" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="E37" t="n">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="F37" t="n">
         <v>3</v>
       </c>
       <c r="G37" t="n">
-        <v>24.6</v>
+        <v>30</v>
       </c>
       <c r="H37" t="n">
-        <v>8.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>8</v>
+        <v>12.3</v>
       </c>
       <c r="K37" t="n">
-        <v>40.3</v>
+        <v>40.7</v>
       </c>
       <c r="L37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N37" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="O37" t="n">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="P37" t="n">
-        <v>18.3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
@@ -2465,37 +2465,37 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Alexander Mattison (MIN)</t>
+          <t>Ezekiel Elliott (NE)</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>11.1</v>
+        <v>15</v>
       </c>
       <c r="D38" t="n">
-        <v>-8</v>
+        <v>6</v>
       </c>
       <c r="E38" t="n">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="F38" t="n">
         <v>3</v>
       </c>
       <c r="G38" t="n">
-        <v>25.9</v>
+        <v>24.2</v>
       </c>
       <c r="H38" t="n">
-        <v>8.6</v>
+        <v>8.1</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>13.3</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="K38" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -2504,13 +2504,13 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="O38" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="P38" t="n">
-        <v>19</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="39">
@@ -2519,37 +2519,37 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Isiah Pacheco (KC)</t>
+          <t>Zach Charbonnet (SEA)</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>10.6</v>
+        <v>14.3</v>
       </c>
       <c r="D39" t="n">
-        <v>12</v>
+        <v>-6</v>
       </c>
       <c r="E39" t="n">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G39" t="n">
-        <v>13.3</v>
+        <v>35.2</v>
       </c>
       <c r="H39" t="n">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>12</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K39" t="n">
-        <v>53</v>
+        <v>36.5</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -2558,13 +2558,13 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="O39" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="P39" t="n">
-        <v>-1.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40">
@@ -2573,52 +2573,52 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Kareem Hunt (CLE)</t>
+          <t>Gus Edwards (BAL)</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>10.2</v>
+        <v>14.1</v>
       </c>
       <c r="D40" t="n">
-        <v>-16</v>
+        <v>-23</v>
       </c>
       <c r="E40" t="n">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="F40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G40" t="n">
-        <v>32.7</v>
+        <v>52.7</v>
       </c>
       <c r="H40" t="n">
-        <v>10.9</v>
+        <v>13.2</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>12.7</v>
+        <v>9</v>
       </c>
       <c r="K40" t="n">
-        <v>41.7</v>
+        <v>41</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
-      <c r="N40" t="n">
-        <v>0.3</v>
-      </c>
       <c r="O40" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="P40" t="n">
-        <v>4</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="41">
@@ -2627,37 +2627,37 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Ezekiel Elliott (NE)</t>
+          <t>Antonio Gibson (WAS)</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>10.2</v>
+        <v>13.9</v>
       </c>
       <c r="D41" t="n">
-        <v>-3</v>
+        <v>-10</v>
       </c>
       <c r="E41" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="F41" t="n">
         <v>3</v>
       </c>
       <c r="G41" t="n">
-        <v>20.6</v>
+        <v>35.8</v>
       </c>
       <c r="H41" t="n">
-        <v>6.9</v>
+        <v>11.9</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>8.699999999999999</v>
+        <v>5.3</v>
       </c>
       <c r="K41" t="n">
-        <v>35.7</v>
+        <v>22.7</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -2666,13 +2666,13 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1.7</v>
+        <v>4.3</v>
       </c>
       <c r="O41" t="n">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="P41" t="n">
-        <v>16.3</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="42">
@@ -2681,52 +2681,52 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Zach Charbonnet (SEA)</t>
+          <t>Jeff Wilson Jr. (MIA)</t>
         </is>
       </c>
       <c r="C42" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="D42" t="n">
         <v>9</v>
       </c>
-      <c r="D42" t="n">
-        <v>-5</v>
-      </c>
       <c r="E42" t="n">
-        <v>7</v>
+        <v>4.8</v>
       </c>
       <c r="F42" t="n">
+        <v>2</v>
+      </c>
+      <c r="G42" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="H42" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>9 - 12</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>31</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
         <v>3</v>
       </c>
-      <c r="G42" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="H42" t="n">
-        <v>7</v>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>8 - 10</t>
-        </is>
-      </c>
-      <c r="J42" t="n">
-        <v>5</v>
-      </c>
-      <c r="K42" t="n">
-        <v>35</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>2.3</v>
-      </c>
       <c r="O42" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="P42" t="n">
-        <v>11.3</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="43">
@@ -2735,52 +2735,52 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Dameon Pierce (HOU)</t>
+          <t>Samaje Perine (DEN)</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>8.9</v>
+        <v>13.7</v>
       </c>
       <c r="D43" t="n">
-        <v>33</v>
+        <v>-9</v>
       </c>
       <c r="E43" t="n">
-        <v>3.8</v>
+        <v>7.8</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G43" t="n">
-        <v>4.6</v>
+        <v>34.6</v>
       </c>
       <c r="H43" t="n">
-        <v>4.6</v>
+        <v>11.5</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K43" t="n">
-        <v>46</v>
+        <v>23.3</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>35.3</v>
       </c>
     </row>
     <row r="44">
@@ -2789,52 +2789,52 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Tyjae Spears (TEN)</t>
+          <t>Kenneth Walker III (SEA)</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>8.6</v>
+        <v>13.7</v>
       </c>
       <c r="D44" t="n">
-        <v>-9</v>
+        <v>-1</v>
       </c>
       <c r="E44" t="n">
-        <v>4.8</v>
+        <v>3</v>
       </c>
       <c r="F44" t="n">
         <v>3</v>
       </c>
       <c r="G44" t="n">
-        <v>22.8</v>
+        <v>25</v>
       </c>
       <c r="H44" t="n">
-        <v>7.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>4.3</v>
+        <v>10.7</v>
       </c>
       <c r="K44" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P44" t="n">
         <v>21</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O44" t="n">
-        <v>5</v>
-      </c>
-      <c r="P44" t="n">
-        <v>18.3</v>
       </c>
     </row>
     <row r="45">
@@ -2843,52 +2843,52 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Royce Freeman (LAR)</t>
+          <t>Tyler Allgeier (ATL)</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>8</v>
+        <v>13.3</v>
       </c>
       <c r="D45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E45" t="n">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="F45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G45" t="n">
-        <v>13.6</v>
+        <v>22.2</v>
       </c>
       <c r="H45" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>10.5</v>
+        <v>10.3</v>
       </c>
       <c r="K45" t="n">
-        <v>38</v>
+        <v>44.7</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="46">
@@ -2897,49 +2897,49 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Craig Reynolds (DET)</t>
+          <t>Khalil Herbert (CHI)</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>7.8</v>
+        <v>12.9</v>
       </c>
       <c r="D46" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E46" t="n">
-        <v>5.3</v>
+        <v>2.2</v>
       </c>
       <c r="F46" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H46" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>9 - 12</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>16</v>
+      </c>
+      <c r="K46" t="n">
+        <v>35</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
         <v>2</v>
       </c>
-      <c r="G46" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="H46" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>8 - 10</t>
-        </is>
-      </c>
-      <c r="J46" t="n">
-        <v>7</v>
-      </c>
-      <c r="K46" t="n">
-        <v>37</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0.5</v>
-      </c>
       <c r="O46" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="P46" t="n">
         <v>6</v>
@@ -2951,52 +2951,52 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Jeff Wilson Jr. (MIA)</t>
+          <t>Latavius Murray (BUF)</t>
         </is>
       </c>
       <c r="C47" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-8</v>
+      </c>
+      <c r="E47" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F47" t="n">
+        <v>4</v>
+      </c>
+      <c r="G47" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>9 - 12</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
         <v>7.5</v>
       </c>
-      <c r="D47" t="n">
-        <v>5</v>
-      </c>
-      <c r="E47" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="F47" t="n">
-        <v>2</v>
-      </c>
-      <c r="G47" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="H47" t="n">
+      <c r="K47" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O47" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="P47" t="n">
         <v>6.2</v>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>8 - 10</t>
-        </is>
-      </c>
-      <c r="J47" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K47" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O47" t="n">
-        <v>3</v>
-      </c>
-      <c r="P47" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="48">
@@ -3005,52 +3005,52 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Cam Akers (MIN)</t>
+          <t>D'Ernest Johnson (JAC)</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>7.5</v>
+        <v>11.1</v>
       </c>
       <c r="D48" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E48" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G48" t="n">
-        <v>16.3</v>
+        <v>19.5</v>
       </c>
       <c r="H48" t="n">
-        <v>8.199999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>8.5</v>
+        <v>5.7</v>
       </c>
       <c r="K48" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="O48" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="P48" t="n">
-        <v>9.5</v>
+        <v>34.7</v>
       </c>
     </row>
     <row r="49">
@@ -3059,52 +3059,52 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Rico Dowdle (DAL)</t>
+          <t>Cam Akers (MIN)</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>7.4</v>
+        <v>10.7</v>
       </c>
       <c r="D49" t="n">
-        <v>-10</v>
+        <v>20</v>
       </c>
       <c r="E49" t="n">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="F49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H49" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>9 - 12</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
+        <v>8</v>
+      </c>
+      <c r="K49" t="n">
+        <v>25</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
         <v>3</v>
       </c>
-      <c r="G49" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="H49" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>8 - 10</t>
-        </is>
-      </c>
-      <c r="J49" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="K49" t="n">
-        <v>35</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="N49" t="n">
-        <v>0.7</v>
-      </c>
       <c r="O49" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="P49" t="n">
-        <v>2.3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50">
@@ -3113,52 +3113,52 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Tyler Allgeier (ATL)</t>
+          <t>Miles Sanders (CAR)</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>7.4</v>
+        <v>10.5</v>
       </c>
       <c r="D50" t="n">
-        <v>-9</v>
+        <v>-1</v>
       </c>
       <c r="E50" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="F50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G50" t="n">
-        <v>18.9</v>
+        <v>21.1</v>
       </c>
       <c r="H50" t="n">
-        <v>6.3</v>
+        <v>5.3</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>9.699999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="K50" t="n">
-        <v>33.7</v>
+        <v>28</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="O50" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="P50" t="n">
-        <v>-0.7</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="51">
@@ -3167,52 +3167,52 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Justice Hill (BAL)</t>
+          <t>Kareem Hunt (CLE)</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>6.9</v>
+        <v>10.4</v>
       </c>
       <c r="D51" t="n">
-        <v>-2</v>
+        <v>-11</v>
       </c>
       <c r="E51" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="F51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G51" t="n">
-        <v>14.2</v>
+        <v>27.9</v>
       </c>
       <c r="H51" t="n">
-        <v>4.7</v>
+        <v>7</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>6.3</v>
+        <v>10.8</v>
       </c>
       <c r="K51" t="n">
-        <v>20.7</v>
+        <v>32</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N51" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="O51" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="P51" t="n">
-        <v>13.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="52">
@@ -3221,52 +3221,52 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Zack Moss (IND)</t>
+          <t>Rico Dowdle (DAL)</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>6.7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>-8</v>
+        <v>-14</v>
       </c>
       <c r="E52" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="F52" t="n">
+        <v>4</v>
+      </c>
+      <c r="G52" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="H52" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>9 - 12</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K52" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="P52" t="n">
         <v>3</v>
-      </c>
-      <c r="G52" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="H52" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>8 - 10</t>
-        </is>
-      </c>
-      <c r="J52" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="K52" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="N52" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="O52" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="P52" t="n">
-        <v>2.7</v>
       </c>
     </row>
     <row r="53">
@@ -3275,52 +3275,52 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Latavius Murray (BUF)</t>
+          <t>Zack Moss (IND)</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>6.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>-13</v>
+        <v>4</v>
       </c>
       <c r="E53" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="F53" t="n">
         <v>3</v>
       </c>
       <c r="G53" t="n">
-        <v>19</v>
+        <v>11.8</v>
       </c>
       <c r="H53" t="n">
-        <v>6.3</v>
+        <v>3.9</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J53" t="n">
         <v>5.3</v>
       </c>
       <c r="K53" t="n">
-        <v>26.3</v>
+        <v>27.7</v>
       </c>
       <c r="L53" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="O53" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="P53" t="n">
-        <v>3.7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54">
@@ -3329,37 +3329,37 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Samaje Perine (DEN)</t>
+          <t>Elijah Mitchell (SF)</t>
         </is>
       </c>
       <c r="C54" t="n">
+        <v>8</v>
+      </c>
+      <c r="D54" t="n">
+        <v>11</v>
+      </c>
+      <c r="E54" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F54" t="n">
+        <v>3</v>
+      </c>
+      <c r="G54" t="n">
+        <v>9.299999999999999</v>
+      </c>
+      <c r="H54" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>9 - 12</t>
+        </is>
+      </c>
+      <c r="J54" t="n">
         <v>6.3</v>
       </c>
-      <c r="D54" t="n">
-        <v>1</v>
-      </c>
-      <c r="E54" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="F54" t="n">
-        <v>2</v>
-      </c>
-      <c r="G54" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="H54" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>8 - 10</t>
-        </is>
-      </c>
-      <c r="J54" t="n">
-        <v>1</v>
-      </c>
       <c r="K54" t="n">
-        <v>6.5</v>
+        <v>28.7</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -3368,13 +3368,13 @@
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>2.5</v>
+        <v>0.3</v>
       </c>
       <c r="O54" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="P54" t="n">
-        <v>25.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55">
@@ -3383,11 +3383,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Roschon Johnson (CHI)</t>
+          <t>Tyjae Spears (TEN)</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>6</v>
+        <v>7.7</v>
       </c>
       <c r="D55" t="n">
         <v>-8</v>
@@ -3396,24 +3396,24 @@
         <v>3.5</v>
       </c>
       <c r="F55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G55" t="n">
-        <v>15.8</v>
+        <v>22.5</v>
       </c>
       <c r="H55" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="K55" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -3422,13 +3422,13 @@
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="O55" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="P55" t="n">
-        <v>11</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="56">
@@ -3437,52 +3437,52 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Kenneth Gainwell (PHI)</t>
+          <t>Roschon Johnson (CHI)</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5.8</v>
+        <v>7.1</v>
       </c>
       <c r="D56" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="F56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G56" t="n">
-        <v>14.9</v>
+        <v>12.7</v>
       </c>
       <c r="H56" t="n">
-        <v>7.4</v>
+        <v>4.2</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>2.5</v>
+        <v>4.3</v>
       </c>
       <c r="K56" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="O56" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="P56" t="n">
-        <v>15.5</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="57">
@@ -3491,37 +3491,37 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Jaleel McLaughlin (DEN)</t>
+          <t>Cordarrelle Patterson (ATL)</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="D57" t="n">
+        <v>5</v>
+      </c>
+      <c r="E57" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="F57" t="n">
         <v>3</v>
       </c>
-      <c r="E57" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="F57" t="n">
-        <v>2</v>
-      </c>
       <c r="G57" t="n">
-        <v>9.100000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="H57" t="n">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K57" t="n">
-        <v>20.5</v>
+        <v>18.7</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -3530,13 +3530,13 @@
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P57" t="n">
-        <v>5</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="58">
@@ -3545,52 +3545,52 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Pierre Strong Jr. (CLE)</t>
+          <t>Kenneth Gainwell (PHI)</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5.3</v>
+        <v>6.1</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E58" t="n">
-        <v>3.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F58" t="n">
         <v>3</v>
       </c>
       <c r="G58" t="n">
-        <v>10.4</v>
+        <v>16.4</v>
       </c>
       <c r="H58" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>4.3</v>
+        <v>2</v>
       </c>
       <c r="K58" t="n">
-        <v>16.7</v>
+        <v>16.3</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N58" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="O58" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="P58" t="n">
-        <v>11.3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
@@ -3599,52 +3599,52 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Ty Chandler (MIN)</t>
+          <t>Chris Rodriguez Jr. (WAS)</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5.1</v>
+        <v>6.1</v>
       </c>
       <c r="D59" t="n">
-        <v>-2</v>
+        <v>13</v>
       </c>
       <c r="E59" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F59" t="n">
         <v>3</v>
       </c>
-      <c r="F59" t="n">
+      <c r="G59" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H59" t="n">
         <v>2</v>
       </c>
-      <c r="G59" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="H59" t="n">
-        <v>5.2</v>
-      </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="K59" t="n">
-        <v>22.5</v>
+        <v>21.3</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="O59" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="P59" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="60">
@@ -3653,37 +3653,37 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Miles Sanders (CAR)</t>
+          <t>Justice Hill (BAL)</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>6.1</v>
       </c>
       <c r="D60" t="n">
-        <v>-6</v>
+        <v>3</v>
       </c>
       <c r="E60" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="F60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G60" t="n">
-        <v>12.1</v>
+        <v>9.5</v>
       </c>
       <c r="H60" t="n">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>3.3</v>
+        <v>5.2</v>
       </c>
       <c r="K60" t="n">
-        <v>11.3</v>
+        <v>19.8</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
@@ -3692,13 +3692,13 @@
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="O60" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="P60" t="n">
-        <v>12.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="61">
@@ -3707,52 +3707,52 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Darrynton Evans (CHI)</t>
+          <t>Derrick Gore (WAS)</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D61" t="n">
-        <v>-19</v>
+        <v>27</v>
       </c>
       <c r="E61" t="n">
-        <v>3.6</v>
+        <v>11.5</v>
       </c>
       <c r="F61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>17.6</v>
+        <v>2.3</v>
       </c>
       <c r="H61" t="n">
-        <v>5.9</v>
+        <v>2.3</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="K61" t="n">
-        <v>8.300000000000001</v>
+        <v>23</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>13.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -3761,52 +3761,52 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>D'Ernest Johnson (JAC)</t>
+          <t>Salvon Ahmed (MIA)</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4.6</v>
+        <v>5.8</v>
       </c>
       <c r="D62" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="E62" t="n">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="F62" t="n">
         <v>2</v>
       </c>
       <c r="G62" t="n">
-        <v>6.8</v>
+        <v>15.3</v>
       </c>
       <c r="H62" t="n">
-        <v>3.4</v>
+        <v>7.6</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J62" t="n">
+        <v>3</v>
+      </c>
+      <c r="K62" t="n">
+        <v>5</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
         <v>2.5</v>
       </c>
-      <c r="K62" t="n">
-        <v>10</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" t="n">
-        <v>1</v>
-      </c>
       <c r="O62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P62" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="63">
@@ -3815,52 +3815,52 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Kendre Miller (NO)</t>
+          <t>Emanuel Wilson (GB)</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4.6</v>
+        <v>5.6</v>
       </c>
       <c r="D63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E63" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="F63" t="n">
+        <v>3</v>
+      </c>
+      <c r="G63" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="H63" t="n">
         <v>2.5</v>
       </c>
-      <c r="F63" t="n">
-        <v>2</v>
-      </c>
-      <c r="G63" t="n">
-        <v>7</v>
-      </c>
-      <c r="H63" t="n">
-        <v>3.5</v>
-      </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="K63" t="n">
-        <v>5</v>
+        <v>18.3</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="O63" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="P63" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -3869,37 +3869,37 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Jamaal Williams (NO)</t>
+          <t>Kendre Miller (NO)</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4.4</v>
+        <v>5.4</v>
       </c>
       <c r="D64" t="n">
-        <v>-5</v>
+        <v>14</v>
       </c>
       <c r="E64" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>10</v>
+        <v>4.1</v>
       </c>
       <c r="H64" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>4.3</v>
+        <v>1</v>
       </c>
       <c r="K64" t="n">
-        <v>14.3</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
@@ -3908,13 +3908,13 @@
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="O64" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="P64" t="n">
-        <v>5.7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65">
@@ -3923,52 +3923,52 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Salvon Ahmed (MIA)</t>
+          <t>Dameon Pierce (HOU)</t>
         </is>
       </c>
       <c r="C65" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="D65" t="n">
+        <v>19</v>
+      </c>
+      <c r="E65" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H65" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>9 - 12</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
+        <v>5</v>
+      </c>
+      <c r="K65" t="n">
+        <v>14</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>1</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1</v>
+      </c>
+      <c r="P65" t="n">
         <v>4</v>
-      </c>
-      <c r="D65" t="n">
-        <v>-4</v>
-      </c>
-      <c r="E65" t="n">
-        <v>1</v>
-      </c>
-      <c r="F65" t="n">
-        <v>2</v>
-      </c>
-      <c r="G65" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="H65" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>8 - 10</t>
-        </is>
-      </c>
-      <c r="J65" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K65" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L65" t="n">
-        <v>0</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0</v>
-      </c>
-      <c r="N65" t="n">
-        <v>3</v>
-      </c>
-      <c r="O65" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="P65" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="66">
@@ -3981,33 +3981,33 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>-13</v>
+        <v>-11</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F66" t="n">
         <v>2</v>
       </c>
       <c r="G66" t="n">
-        <v>12.2</v>
+        <v>13.9</v>
       </c>
       <c r="H66" t="n">
-        <v>6.1</v>
+        <v>7</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
@@ -4016,13 +4016,13 @@
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O66" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="P66" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67">
@@ -4035,33 +4035,33 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="D67" t="n">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="E67" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="F67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G67" t="n">
-        <v>6.9</v>
+        <v>9.5</v>
       </c>
       <c r="H67" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="K67" t="n">
-        <v>18.3</v>
+        <v>13.8</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
@@ -4070,13 +4070,13 @@
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="O67" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="P67" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="68">
@@ -4085,52 +4085,52 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Emanuel Wilson (GB)</t>
+          <t>Ty Johnson (BUF)</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="D68" t="n">
-        <v>9</v>
+        <v>-16</v>
       </c>
       <c r="E68" t="n">
-        <v>10.8</v>
+        <v>3.2</v>
       </c>
       <c r="F68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G68" t="n">
-        <v>4.3</v>
+        <v>16.9</v>
       </c>
       <c r="H68" t="n">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="K68" t="n">
-        <v>21.5</v>
+        <v>8</v>
       </c>
       <c r="L68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="O68" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="P68" t="n">
-        <v>0</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="69">
@@ -4139,37 +4139,37 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Raheem Blackshear (CAR)</t>
+          <t>Dalvin Cook (NYJ)</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="D69" t="n">
-        <v>-6</v>
+        <v>-9</v>
       </c>
       <c r="E69" t="n">
-        <v>2</v>
+        <v>5.3</v>
       </c>
       <c r="F69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G69" t="n">
-        <v>8.899999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="K69" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -4178,13 +4178,13 @@
         <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="O69" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="P69" t="n">
-        <v>12.3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70">
@@ -4193,52 +4193,52 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Ameer Abdullah (LV)</t>
+          <t>Israel Abanikanda (NYJ)</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="D70" t="n">
-        <v>-6</v>
+        <v>16</v>
       </c>
       <c r="E70" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>8.800000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="H70" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J70" t="n">
         <v>1</v>
       </c>
       <c r="K70" t="n">
+        <v>11</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O70" t="n">
+        <v>2</v>
+      </c>
+      <c r="P70" t="n">
         <v>5</v>
-      </c>
-      <c r="L70" t="n">
-        <v>0</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0</v>
-      </c>
-      <c r="N70" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="O70" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P70" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="71">
@@ -4247,37 +4247,37 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Kyle Juszczyk (SF)</t>
+          <t>Emari Demercado (ARI)</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="D71" t="n">
-        <v>-15</v>
+        <v>22</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>10.6</v>
+        <v>1.5</v>
       </c>
       <c r="H71" t="n">
-        <v>5.3</v>
+        <v>1.5</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
@@ -4286,13 +4286,13 @@
         <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O71" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -4301,37 +4301,37 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Elijah Mitchell (SF)</t>
+          <t>Tony Jones Jr. (NO)</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="D72" t="n">
-        <v>12</v>
+        <v>-4</v>
       </c>
       <c r="E72" t="n">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="F72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G72" t="n">
-        <v>2.5</v>
+        <v>7.1</v>
       </c>
       <c r="H72" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>5.5</v>
+        <v>1.7</v>
       </c>
       <c r="K72" t="n">
-        <v>12.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
@@ -4340,13 +4340,13 @@
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O72" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="P72" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="73">
@@ -4355,52 +4355,52 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Dalvin Cook (NYJ)</t>
+          <t>Jashaun Corbin (NYG)</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="D73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E73" t="n">
-        <v>4.8</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H73" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>9 - 12</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
         <v>3</v>
       </c>
-      <c r="G73" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>8 - 10</t>
-        </is>
-      </c>
-      <c r="J73" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K73" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="L73" t="n">
-        <v>0</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0</v>
-      </c>
-      <c r="N73" t="n">
-        <v>0.3</v>
-      </c>
       <c r="O73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P73" t="n">
-        <v>0.3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74">
@@ -4409,37 +4409,37 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Tony Jones Jr. (NO)</t>
+          <t>Clyde Edwards-Helaire (KC)</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="D74" t="n">
+        <v>13</v>
+      </c>
+      <c r="E74" t="n">
         <v>5</v>
-      </c>
-      <c r="E74" t="n">
-        <v>3.8</v>
       </c>
       <c r="F74" t="n">
         <v>2</v>
       </c>
       <c r="G74" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="K74" t="n">
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
@@ -4448,13 +4448,13 @@
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O74" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="P74" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -4463,37 +4463,37 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Michael Carter (FA)</t>
+          <t>Jaleel McLaughlin (DEN)</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="D75" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="F75" t="n">
         <v>3</v>
       </c>
       <c r="G75" t="n">
-        <v>8.6</v>
+        <v>10.1</v>
       </c>
       <c r="H75" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="K75" t="n">
-        <v>0.7</v>
+        <v>4.3</v>
       </c>
       <c r="L75" t="n">
         <v>0</v>
@@ -4502,13 +4502,13 @@
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="O75" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="P75" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76">
@@ -4517,52 +4517,52 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Matt Breida (NYG)</t>
+          <t>Jamaal Williams (NO)</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="D76" t="n">
-        <v>-2</v>
+        <v>-10</v>
       </c>
       <c r="E76" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="F76" t="n">
         <v>3</v>
       </c>
       <c r="G76" t="n">
-        <v>5.100000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H76" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>9 - 12</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
+        <v>3</v>
+      </c>
+      <c r="K76" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
         <v>1.7</v>
       </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>8 - 10</t>
-        </is>
-      </c>
-      <c r="J76" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K76" t="n">
-        <v>7</v>
-      </c>
-      <c r="L76" t="n">
-        <v>0</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0</v>
-      </c>
-      <c r="N76" t="n">
-        <v>0.7</v>
-      </c>
       <c r="O76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P76" t="n">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="77">
@@ -4571,37 +4571,37 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Cordarrelle Patterson (ATL)</t>
+          <t>Tank Bigsby (JAC)</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="D77" t="n">
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="E77" t="n">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="F77" t="n">
         <v>3</v>
       </c>
       <c r="G77" t="n">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>2</v>
+        <v>4.3</v>
       </c>
       <c r="K77" t="n">
-        <v>6.7</v>
+        <v>10.7</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
@@ -4610,13 +4610,13 @@
         <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O77" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="P77" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -4625,37 +4625,37 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Chase Edmonds (TB)</t>
+          <t>Ke'Shawn Vaughn (TB)</t>
         </is>
       </c>
       <c r="C78" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D78" t="n">
+        <v>13</v>
+      </c>
+      <c r="E78" t="n">
         <v>2.2</v>
       </c>
-      <c r="D78" t="n">
-        <v>-7</v>
-      </c>
-      <c r="E78" t="n">
-        <v>0.9</v>
-      </c>
       <c r="F78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>6.2</v>
+        <v>1.8</v>
       </c>
       <c r="H78" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="K78" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
@@ -4664,13 +4664,13 @@
         <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="O78" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="P78" t="n">
-        <v>4.3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79">
@@ -4679,37 +4679,37 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Isaiah Spiller (LAC)</t>
+          <t>Boston Scott (PHI)</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="D79" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G79" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H79" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K79" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -4718,13 +4718,13 @@
         <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O79" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P79" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -4733,52 +4733,52 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Keaontay Ingram (ARI)</t>
+          <t>Ameer Abdullah (LV)</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>-19</v>
       </c>
       <c r="E80" t="n">
-        <v>1.5</v>
+        <v>6.3</v>
       </c>
       <c r="F80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G80" t="n">
-        <v>3.600000000000001</v>
+        <v>9.600000000000001</v>
       </c>
       <c r="H80" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>9 - 12</t>
+        </is>
+      </c>
+      <c r="J80" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K80" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
         <v>1.2</v>
       </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>8 - 10</t>
-        </is>
-      </c>
-      <c r="J80" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K80" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="L80" t="n">
-        <v>0</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0</v>
-      </c>
-      <c r="N80" t="n">
-        <v>0.3</v>
-      </c>
       <c r="O80" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="P80" t="n">
-        <v>2.3</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="81">
@@ -4787,37 +4787,37 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Mike Boone (HOU)</t>
+          <t>Kene Nwangwu (MIN)</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="D81" t="n">
-        <v>-8</v>
+        <v>16</v>
       </c>
       <c r="E81" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>5.5</v>
+        <v>0.9</v>
       </c>
       <c r="H81" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="K81" t="n">
-        <v>2.7</v>
+        <v>9</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
@@ -4826,13 +4826,13 @@
         <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O81" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>5.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -4841,52 +4841,52 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Jashaun Corbin (NYG)</t>
+          <t>Chase Edmonds (TB)</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="D82" t="n">
-        <v>-5</v>
+        <v>-12</v>
       </c>
       <c r="E82" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F82" t="n">
+        <v>4</v>
+      </c>
+      <c r="G82" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>9 - 12</t>
+        </is>
+      </c>
+      <c r="J82" t="n">
+        <v>3</v>
+      </c>
+      <c r="K82" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O82" t="n">
         <v>1</v>
       </c>
-      <c r="F82" t="n">
+      <c r="P82" t="n">
         <v>2</v>
-      </c>
-      <c r="G82" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="H82" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>8 - 10</t>
-        </is>
-      </c>
-      <c r="J82" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L82" t="n">
-        <v>0</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0</v>
-      </c>
-      <c r="N82" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O82" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P82" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="83">
@@ -4895,37 +4895,37 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Kene Nwangwu (MIN)</t>
+          <t>Trayveon Williams (CIN)</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="D83" t="n">
-        <v>9</v>
+        <v>-8</v>
       </c>
       <c r="E83" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F83" t="n">
+        <v>4</v>
+      </c>
+      <c r="G83" t="n">
         <v>4.5</v>
       </c>
-      <c r="F83" t="n">
-        <v>1</v>
-      </c>
-      <c r="G83" t="n">
-        <v>0.9</v>
-      </c>
       <c r="H83" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="K83" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L83" t="n">
         <v>0</v>
@@ -4934,13 +4934,13 @@
         <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O83" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="P83" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="84">
@@ -4949,52 +4949,52 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Andrew Beck (HOU)</t>
+          <t>Rashaad Penny (PHI)</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="D84" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="F84" t="n">
+        <v>1</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>9 - 12</t>
+        </is>
+      </c>
+      <c r="J84" t="n">
         <v>2</v>
       </c>
-      <c r="G84" t="n">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>8 - 10</t>
-        </is>
-      </c>
-      <c r="J84" t="n">
-        <v>1</v>
-      </c>
       <c r="K84" t="n">
-        <v>0.5</v>
+        <v>8</v>
       </c>
       <c r="L84" t="n">
         <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="O84" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="P84" t="n">
-        <v>6.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -5003,52 +5003,50 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Rashaad Penny (PHI)</t>
+          <t>Alec Ingold (MIA)</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="D85" t="n">
-        <v>8</v>
-      </c>
-      <c r="E85" t="n">
-        <v>4</v>
-      </c>
+        <v>-12</v>
+      </c>
+      <c r="E85" t="inlineStr"/>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G85" t="n">
-        <v>0.8</v>
+        <v>5.699999999999999</v>
       </c>
       <c r="H85" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
         <v>2</v>
       </c>
-      <c r="K85" t="n">
-        <v>8</v>
-      </c>
-      <c r="L85" t="n">
-        <v>0</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0</v>
-      </c>
-      <c r="N85" t="n">
-        <v>0</v>
-      </c>
       <c r="O85" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="P85" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="86">
@@ -5057,37 +5055,37 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Tank Bigsby (JAC)</t>
+          <t>Keaontay Ingram (ARI)</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="F86" t="n">
         <v>2</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.6000000000000001</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>-0.3</v>
+        <v>0.5</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="K86" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L86" t="n">
         <v>0</v>
@@ -5099,7 +5097,7 @@
         <v>0</v>
       </c>
       <c r="O86" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P86" t="n">
         <v>0</v>
@@ -5111,37 +5109,35 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Trayveon Williams (CIN)</t>
+          <t>Kyle Juszczyk (SF)</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>-6</v>
-      </c>
-      <c r="E87" t="n">
-        <v>3.8</v>
-      </c>
+        <v>-29</v>
+      </c>
+      <c r="E87" t="inlineStr"/>
       <c r="F87" t="n">
         <v>3</v>
       </c>
       <c r="G87" t="n">
-        <v>3.1</v>
+        <v>10.6</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>6.3</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
@@ -5150,13 +5146,13 @@
         <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="O87" t="n">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="P87" t="n">
-        <v>0.7</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="88">
@@ -5165,37 +5161,37 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Ke'Shawn Vaughn (TB)</t>
+          <t>Matt Breida (NYG)</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
-        <v>-2</v>
+        <v>-14</v>
       </c>
       <c r="E88" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F88" t="n">
+        <v>4</v>
+      </c>
+      <c r="G88" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>9 - 12</t>
+        </is>
+      </c>
+      <c r="J88" t="n">
         <v>2</v>
       </c>
-      <c r="F88" t="n">
-        <v>2</v>
-      </c>
-      <c r="G88" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>8 - 10</t>
-        </is>
-      </c>
-      <c r="J88" t="n">
-        <v>2.5</v>
-      </c>
       <c r="K88" t="n">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>
@@ -5207,10 +5203,10 @@
         <v>0.5</v>
       </c>
       <c r="O88" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P88" t="n">
-        <v>-0.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89">
@@ -5219,35 +5215,37 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Boston Scott (PHI)</t>
+          <t>Deuce Vaughn (DAL)</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="D89" t="n">
         <v>1</v>
       </c>
-      <c r="E89" t="inlineStr"/>
+      <c r="E89" t="n">
+        <v>-2</v>
+      </c>
       <c r="F89" t="n">
         <v>1</v>
       </c>
       <c r="G89" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H89" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L89" t="n">
         <v>0</v>
@@ -5262,7 +5260,7 @@
         <v>1</v>
       </c>
       <c r="P89" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90">
@@ -5271,37 +5269,37 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Deuce Vaughn (DAL)</t>
+          <t>DeeJay Dallas (SEA)</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="D90" t="n">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="E90" t="n">
-        <v>-2</v>
+        <v>4.7</v>
       </c>
       <c r="F90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G90" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="K90" t="n">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="L90" t="n">
         <v>0</v>
@@ -5316,7 +5314,7 @@
         <v>0.5</v>
       </c>
       <c r="P90" t="n">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="91">
@@ -5325,35 +5323,37 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Alec Ingold (MIA)</t>
+          <t>Raheem Blackshear (CAR)</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="D91" t="n">
-        <v>-8</v>
-      </c>
-      <c r="E91" t="inlineStr"/>
+        <v>-12</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2.3</v>
+      </c>
       <c r="F91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G91" t="n">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="H91" t="n">
         <v>1.3</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K91" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="L91" t="n">
         <v>0</v>
@@ -5362,13 +5362,13 @@
         <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="O91" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="P91" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="92">
@@ -5377,52 +5377,52 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Clyde Edwards-Helaire (KC)</t>
+          <t>De'Von Achane (MIA)</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="D92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E92" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
         <v>1</v>
       </c>
       <c r="G92" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H92" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J92" t="n">
         <v>1</v>
       </c>
       <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>1</v>
+      </c>
+      <c r="O92" t="n">
+        <v>1</v>
+      </c>
+      <c r="P92" t="n">
         <v>4</v>
-      </c>
-      <c r="L92" t="n">
-        <v>0</v>
-      </c>
-      <c r="M92" t="n">
-        <v>0</v>
-      </c>
-      <c r="N92" t="n">
-        <v>0</v>
-      </c>
-      <c r="O92" t="n">
-        <v>0</v>
-      </c>
-      <c r="P92" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -5431,35 +5431,37 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Alex Armah Jr. (WAS)</t>
+          <t>Mike Boone (HOU)</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="D93" t="n">
-        <v>-8</v>
-      </c>
-      <c r="E93" t="inlineStr"/>
+        <v>-17</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1.5</v>
+      </c>
       <c r="F93" t="n">
         <v>3</v>
       </c>
       <c r="G93" t="n">
-        <v>2.3</v>
+        <v>4.4</v>
       </c>
       <c r="H93" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="K93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L93" t="n">
         <v>0</v>
@@ -5468,13 +5470,13 @@
         <v>0</v>
       </c>
       <c r="N93" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="O93" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="P93" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="94">
@@ -5483,35 +5485,37 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Nick Bawden (NYJ)</t>
+          <t>Pierre Strong Jr. (CLE)</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="D94" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E94" t="inlineStr"/>
+        <v>-9</v>
+      </c>
+      <c r="E94" t="n">
+        <v>2.5</v>
+      </c>
       <c r="F94" t="n">
         <v>3</v>
       </c>
       <c r="G94" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="H94" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="K94" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="L94" t="n">
         <v>0</v>
@@ -5520,13 +5524,13 @@
         <v>0</v>
       </c>
       <c r="N94" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="O94" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="P94" t="n">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95">
@@ -5535,37 +5539,37 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Deon Jackson (NYG)</t>
+          <t>Zach Evans (LAR)</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
+        <v>4</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F95" t="n">
         <v>2</v>
       </c>
-      <c r="E95" t="n">
+      <c r="G95" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>9 - 12</t>
+        </is>
+      </c>
+      <c r="J95" t="n">
         <v>2</v>
       </c>
-      <c r="F95" t="n">
-        <v>1</v>
-      </c>
-      <c r="G95" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>8 - 10</t>
-        </is>
-      </c>
-      <c r="J95" t="n">
-        <v>1</v>
-      </c>
       <c r="K95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L95" t="n">
         <v>0</v>
@@ -5589,52 +5593,50 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Zamir White (LV)</t>
+          <t>Keith Smith (ATL)</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
-      </c>
-      <c r="E96" t="n">
-        <v>0.6</v>
-      </c>
+        <v>-4</v>
+      </c>
+      <c r="E96" t="inlineStr"/>
       <c r="F96" t="n">
+        <v>2</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>9 - 12</t>
+        </is>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P96" t="n">
         <v>3</v>
-      </c>
-      <c r="G96" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>8 - 10</t>
-        </is>
-      </c>
-      <c r="J96" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="K96" t="n">
-        <v>1</v>
-      </c>
-      <c r="L96" t="n">
-        <v>0</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0</v>
-      </c>
-      <c r="N96" t="n">
-        <v>0</v>
-      </c>
-      <c r="O96" t="n">
-        <v>0</v>
-      </c>
-      <c r="P96" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -5643,37 +5645,35 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>La'Mical Perine (KC)</t>
+          <t>Nick Bawden (NYJ)</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="D97" t="n">
-        <v>2</v>
-      </c>
-      <c r="E97" t="n">
-        <v>1</v>
-      </c>
+        <v>-17</v>
+      </c>
+      <c r="E97" t="inlineStr"/>
       <c r="F97" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G97" t="n">
-        <v>0.1</v>
+        <v>3.3</v>
       </c>
       <c r="H97" t="n">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L97" t="n">
         <v>0</v>
@@ -5682,13 +5682,13 @@
         <v>0</v>
       </c>
       <c r="N97" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O97" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P97" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="98">
@@ -5697,35 +5697,37 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Dare Ogunbowale (HOU)</t>
+          <t>Deon Jackson (NYG)</t>
         </is>
       </c>
       <c r="C98" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D98" t="n">
+        <v>3</v>
+      </c>
+      <c r="E98" t="n">
+        <v>2</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1</v>
+      </c>
+      <c r="G98" t="n">
         <v>0.2</v>
       </c>
-      <c r="D98" t="n">
-        <v>-16</v>
-      </c>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="n">
+      <c r="H98" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>9 - 12</t>
+        </is>
+      </c>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
+      <c r="K98" t="n">
         <v>2</v>
-      </c>
-      <c r="G98" t="n">
-        <v>3</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>8 - 10</t>
-        </is>
-      </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
       </c>
       <c r="L98" t="n">
         <v>0</v>
@@ -5749,52 +5751,52 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Ty Johnson (BUF)</t>
+          <t>Andrew Beck (HOU)</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="D99" t="n">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>3</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>9 - 12</t>
+        </is>
+      </c>
+      <c r="J99" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0</v>
+      </c>
+      <c r="N99" t="n">
+        <v>1</v>
+      </c>
+      <c r="O99" t="n">
+        <v>1</v>
+      </c>
+      <c r="P99" t="n">
         <v>2</v>
-      </c>
-      <c r="F99" t="n">
-        <v>2</v>
-      </c>
-      <c r="G99" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>8 - 10</t>
-        </is>
-      </c>
-      <c r="J99" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K99" t="n">
-        <v>1</v>
-      </c>
-      <c r="L99" t="n">
-        <v>0</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0</v>
-      </c>
-      <c r="N99" t="n">
-        <v>0</v>
-      </c>
-      <c r="O99" t="n">
-        <v>0</v>
-      </c>
-      <c r="P99" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5803,35 +5805,37 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>C.J. Ham (MIN)</t>
+          <t>La'Mical Perine (KC)</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="D100" t="n">
-        <v>-9</v>
-      </c>
-      <c r="E100" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1</v>
+      </c>
       <c r="F100" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G100" t="n">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="H100" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L100" t="n">
         <v>0</v>
@@ -5840,13 +5844,13 @@
         <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="O100" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="P100" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -5855,35 +5859,37 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Khari Blasingame (CHI)</t>
+          <t>Zamir White (LV)</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="D101" t="n">
         <v>-1</v>
       </c>
-      <c r="E101" t="inlineStr"/>
+      <c r="E101" t="n">
+        <v>0.5</v>
+      </c>
       <c r="F101" t="n">
+        <v>3</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>9 - 12</t>
+        </is>
+      </c>
+      <c r="J101" t="n">
         <v>2</v>
       </c>
-      <c r="G101" t="n">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>8 - 10</t>
-        </is>
-      </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
       <c r="K101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L101" t="n">
         <v>0</v>
@@ -5895,7 +5901,7 @@
         <v>0</v>
       </c>
       <c r="O101" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P101" t="n">
         <v>0</v>
@@ -5907,28 +5913,28 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Hunter Luepke (DAL)</t>
+          <t>Alex Armah Jr. (WAS)</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="D102" t="n">
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G102" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H102" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J102" t="n">
@@ -5944,13 +5950,13 @@
         <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="O102" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="P102" t="n">
-        <v>-0.7</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="103">
@@ -5959,28 +5965,28 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Anthony McFarland Jr. (PIT)</t>
+          <t>Dare Ogunbowale (HOU)</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D103" t="n">
-        <v>-3</v>
+        <v>-21</v>
       </c>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="n">
+        <v>3</v>
+      </c>
+      <c r="G103" t="n">
+        <v>3</v>
+      </c>
+      <c r="H103" t="n">
         <v>1</v>
       </c>
-      <c r="G103" t="n">
-        <v>0</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J103" t="n">
@@ -6011,18 +6017,18 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Ty Montgomery II (NE)</t>
+          <t>Khari Blasingame (CHI)</t>
         </is>
       </c>
       <c r="C104" t="n">
         <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G104" t="n">
         <v>0</v>
@@ -6032,7 +6038,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J104" t="n">
@@ -6063,18 +6069,18 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Travis Homer (CHI)</t>
+          <t>Chris Evans (CIN)</t>
         </is>
       </c>
       <c r="C105" t="n">
         <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G105" t="n">
         <v>0</v>
@@ -6084,7 +6090,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J105" t="n">
@@ -6115,18 +6121,18 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Sean Tucker (TB)</t>
+          <t>Jordan Mason (SF)</t>
         </is>
       </c>
       <c r="C106" t="n">
         <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
@@ -6136,7 +6142,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J106" t="n">
@@ -6167,18 +6173,18 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Trey Sermon (IND)</t>
+          <t>Ty Montgomery II (NE)</t>
         </is>
       </c>
       <c r="C107" t="n">
         <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
@@ -6188,7 +6194,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J107" t="n">
@@ -6207,7 +6213,7 @@
         <v>0</v>
       </c>
       <c r="O107" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="P107" t="n">
         <v>0</v>
@@ -6219,14 +6225,14 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Jakob Johnson (LV)</t>
+          <t>Sean Tucker (TB)</t>
         </is>
       </c>
       <c r="C108" t="n">
         <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="n">
@@ -6240,7 +6246,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J108" t="n">
@@ -6271,18 +6277,18 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>DeeJay Dallas (SEA)</t>
+          <t>Chase Brown (CIN)</t>
         </is>
       </c>
       <c r="C109" t="n">
         <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>-9</v>
+        <v>-6</v>
       </c>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
@@ -6292,7 +6298,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J109" t="n">
@@ -6323,18 +6329,18 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Jonathan Ward (TEN)</t>
+          <t>Hunter Luepke (DAL)</t>
         </is>
       </c>
       <c r="C110" t="n">
         <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>-10</v>
+        <v>-7</v>
       </c>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G110" t="n">
         <v>0</v>
@@ -6344,7 +6350,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J110" t="n">
@@ -6363,7 +6369,7 @@
         <v>0</v>
       </c>
       <c r="O110" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="P110" t="n">
         <v>0</v>
@@ -6375,14 +6381,14 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Godwin Igwebuike (PIT)</t>
+          <t>Reggie Gilliam (BUF)</t>
         </is>
       </c>
       <c r="C111" t="n">
         <v>0</v>
       </c>
       <c r="D111" t="n">
-        <v>-11</v>
+        <v>-8</v>
       </c>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="n">
@@ -6396,7 +6402,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J111" t="n">
@@ -6427,18 +6433,18 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Reggie Gilliam (BUF)</t>
+          <t>Marlon Mack (ARI)</t>
         </is>
       </c>
       <c r="C112" t="n">
         <v>0</v>
       </c>
       <c r="D112" t="n">
-        <v>-12</v>
+        <v>-9</v>
       </c>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
@@ -6448,7 +6454,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J112" t="n">
@@ -6479,18 +6485,18 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Chris Evans (CIN)</t>
+          <t>Eric Gray (NYG)</t>
         </is>
       </c>
       <c r="C113" t="n">
         <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>-13</v>
+        <v>-10</v>
       </c>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
@@ -6500,7 +6506,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J113" t="n">
@@ -6531,18 +6537,18 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Dwayne Washington (DEN)</t>
+          <t>Austin Walter (LV)</t>
         </is>
       </c>
       <c r="C114" t="n">
         <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>-14</v>
+        <v>-11</v>
       </c>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G114" t="n">
         <v>0</v>
@@ -6552,7 +6558,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J114" t="n">
@@ -6583,18 +6589,18 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Patrick Ricard (BAL)</t>
+          <t>Dwayne Washington (DEN)</t>
         </is>
       </c>
       <c r="C115" t="n">
         <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>-15</v>
+        <v>-12</v>
       </c>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G115" t="n">
         <v>0</v>
@@ -6604,7 +6610,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J115" t="n">
@@ -6623,7 +6629,7 @@
         <v>0</v>
       </c>
       <c r="O115" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="P115" t="n">
         <v>0</v>
@@ -6635,18 +6641,18 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Jason Cabinda (DET)</t>
+          <t>C.J. Ham (MIN)</t>
         </is>
       </c>
       <c r="C116" t="n">
         <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>-16</v>
+        <v>-13</v>
       </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G116" t="n">
         <v>0</v>
@@ -6656,7 +6662,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J116" t="n">
@@ -6687,18 +6693,18 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Jordan Mason (SF)</t>
+          <t>Patrick Ricard (BAL)</t>
         </is>
       </c>
       <c r="C117" t="n">
         <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>-17</v>
+        <v>-14</v>
       </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G117" t="n">
         <v>0</v>
@@ -6708,7 +6714,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J117" t="n">
@@ -6727,7 +6733,7 @@
         <v>0</v>
       </c>
       <c r="O117" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="P117" t="n">
         <v>0</v>
@@ -6739,14 +6745,14 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Chris Rodriguez Jr. (WAS)</t>
+          <t>Godwin Igwebuike (PIT)</t>
         </is>
       </c>
       <c r="C118" t="n">
         <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>-18</v>
+        <v>-15</v>
       </c>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="n">
@@ -6760,7 +6766,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J118" t="n">
@@ -6798,7 +6804,7 @@
         <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>-19</v>
+        <v>-16</v>
       </c>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="n">
@@ -6812,7 +6818,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J119" t="n">
@@ -6843,18 +6849,18 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Nick Bellore (SEA)</t>
+          <t>Corey Clement (ARI)</t>
         </is>
       </c>
       <c r="C120" t="n">
         <v>0</v>
       </c>
       <c r="D120" t="n">
-        <v>-20</v>
+        <v>-17</v>
       </c>
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G120" t="n">
         <v>0</v>
@@ -6864,7 +6870,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J120" t="n">
@@ -6895,14 +6901,14 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Keith Smith (ATL)</t>
+          <t>Anthony McFarland Jr. (PIT)</t>
         </is>
       </c>
       <c r="C121" t="n">
         <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>-21</v>
+        <v>-18</v>
       </c>
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="n">
@@ -6916,7 +6922,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J121" t="n">
@@ -6947,33 +6953,51 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Eric Gray (NYG)</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr"/>
+          <t>Nick Bellore (SEA)</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>0</v>
+      </c>
       <c r="D122" t="n">
-        <v>-22</v>
+        <v>-19</v>
       </c>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G122" t="n">
         <v>0</v>
       </c>
-      <c r="H122" t="inlineStr"/>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>8 - 10</t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="inlineStr"/>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
+          <t>9 - 12</t>
+        </is>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0</v>
+      </c>
+      <c r="O122" t="n">
+        <v>0</v>
+      </c>
+      <c r="P122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -6981,33 +7005,51 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Chad Spann (HOU)</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr"/>
+          <t>Trey Sermon (IND)</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>0</v>
+      </c>
       <c r="D123" t="n">
-        <v>-23</v>
+        <v>-20</v>
       </c>
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
       </c>
-      <c r="H123" t="inlineStr"/>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>8 - 10</t>
-        </is>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="inlineStr"/>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
+          <t>9 - 12</t>
+        </is>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0</v>
+      </c>
+      <c r="O123" t="n">
+        <v>0</v>
+      </c>
+      <c r="P123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -7015,33 +7057,51 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Garrett Mills (NE)</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr"/>
+          <t>Craig Reynolds (DET)</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>-0.1</v>
+      </c>
       <c r="D124" t="n">
-        <v>-24</v>
+        <v>78</v>
       </c>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G124" t="n">
-        <v>0</v>
-      </c>
-      <c r="H124" t="inlineStr"/>
+        <v>-2</v>
+      </c>
+      <c r="H124" t="n">
+        <v>-1</v>
+      </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>8 - 10</t>
-        </is>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="inlineStr"/>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
+          <t>9 - 12</t>
+        </is>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" t="n">
+        <v>0</v>
+      </c>
+      <c r="P124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -7049,12 +7109,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Jay Finley (CIN)</t>
+          <t>Brittain Brown (LV)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="n">
-        <v>-25</v>
+        <v>-22</v>
       </c>
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="n">
@@ -7066,7 +7126,7 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J125" t="inlineStr"/>
@@ -7083,12 +7143,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Shane Bannon (KC)</t>
+          <t>Samkon Gado (TEN)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="n">
-        <v>-26</v>
+        <v>-23</v>
       </c>
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="n">
@@ -7100,7 +7160,7 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J126" t="inlineStr"/>
@@ -7117,12 +7177,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Kyren Williams (LAR)</t>
+          <t>Xavier Omon (SF)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="n">
-        <v>-27</v>
+        <v>-24</v>
       </c>
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="n">
@@ -7134,7 +7194,7 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J127" t="inlineStr"/>
@@ -7151,12 +7211,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Kevin Harris (NE)</t>
+          <t>Chad Simpson (WAS)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="n">
-        <v>-28</v>
+        <v>-25</v>
       </c>
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="n">
@@ -7168,7 +7228,7 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J128" t="inlineStr"/>
@@ -7185,12 +7245,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Tyler Goodson (IND)</t>
+          <t>Dantrell Savage (CAR)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="n">
-        <v>-29</v>
+        <v>-26</v>
       </c>
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="n">
@@ -7202,7 +7262,7 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J129" t="inlineStr"/>
@@ -7219,12 +7279,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Tyrion Davis-Price (SF)</t>
+          <t>Anthony Alridge (WAS)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="n">
-        <v>-30</v>
+        <v>-27</v>
       </c>
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="n">
@@ -7236,7 +7296,7 @@
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J130" t="inlineStr"/>
@@ -7253,12 +7313,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Snoop Conner (JAC)</t>
+          <t>Kenny Irons (CIN)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="n">
-        <v>-31</v>
+        <v>-28</v>
       </c>
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="n">
@@ -7270,7 +7330,7 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J131" t="inlineStr"/>
@@ -7287,12 +7347,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>De'Von Achane (MIA)</t>
+          <t>Garrett Mills (NE)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="n">
-        <v>-32</v>
+        <v>-29</v>
       </c>
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="n">
@@ -7304,7 +7364,7 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J132" t="inlineStr"/>
@@ -7321,12 +7381,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Gary Brightwell (NYG)</t>
+          <t>Brandon Bolden (LV)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="n">
-        <v>-33</v>
+        <v>-30</v>
       </c>
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="n">
@@ -7338,7 +7398,7 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J133" t="inlineStr"/>
@@ -7355,12 +7415,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Avery Williams (ATL)</t>
+          <t>Shane Bannon (KC)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="n">
-        <v>-34</v>
+        <v>-31</v>
       </c>
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="n">
@@ -7372,7 +7432,7 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J134" t="inlineStr"/>
@@ -7389,12 +7449,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Sincere McCormick (LV)</t>
+          <t>Jay Finley (CIN)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="n">
-        <v>-35</v>
+        <v>-32</v>
       </c>
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="n">
@@ -7406,7 +7466,7 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J135" t="inlineStr"/>
@@ -7423,12 +7483,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Gerrid Doaks (HOU)</t>
+          <t>Chad Spann (HOU)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="n">
-        <v>-36</v>
+        <v>-33</v>
       </c>
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="n">
@@ -7440,7 +7500,7 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J136" t="inlineStr"/>
@@ -7457,12 +7517,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Jake Funk (MIA)</t>
+          <t>Kevin Harris (NE)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="n">
-        <v>-37</v>
+        <v>-34</v>
       </c>
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="n">
@@ -7474,7 +7534,7 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J137" t="inlineStr"/>
@@ -7491,12 +7551,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Zach Evans (LAR)</t>
+          <t>Eno Benjamin (NO)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="n">
-        <v>-38</v>
+        <v>-35</v>
       </c>
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="n">
@@ -7508,7 +7568,7 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J138" t="inlineStr"/>
@@ -7525,12 +7585,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Brandon Bolden (LV)</t>
+          <t>Tyler Goodson (IND)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="n">
-        <v>-39</v>
+        <v>-36</v>
       </c>
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="n">
@@ -7542,7 +7602,7 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J139" t="inlineStr"/>
@@ -7559,12 +7619,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Madison Hedgecock (NYG)</t>
+          <t>J.K. Dobbins (BAL)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="n">
-        <v>-40</v>
+        <v>-37</v>
       </c>
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="n">
@@ -7576,7 +7636,7 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J140" t="inlineStr"/>
@@ -7593,12 +7653,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Anthony Alridge (WAS)</t>
+          <t>Jakob Johnson (LV)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="n">
-        <v>-41</v>
+        <v>-38</v>
       </c>
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="n">
@@ -7610,7 +7670,7 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J141" t="inlineStr"/>
@@ -7627,12 +7687,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Melvin Gordon III (BAL)</t>
+          <t>Madison Hedgecock (NYG)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="n">
-        <v>-42</v>
+        <v>-39</v>
       </c>
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="n">
@@ -7644,7 +7704,7 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J142" t="inlineStr"/>
@@ -7661,12 +7721,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Jonathan Williams (WAS)</t>
+          <t>Tarik Cohen (CAR)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="n">
-        <v>-43</v>
+        <v>-40</v>
       </c>
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="n">
@@ -7678,7 +7738,7 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J143" t="inlineStr"/>
@@ -7695,12 +7755,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Kenyan Drake (CLE)</t>
+          <t>Tyrion Davis-Price (SF)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="n">
-        <v>-44</v>
+        <v>-41</v>
       </c>
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="n">
@@ -7712,7 +7772,7 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J144" t="inlineStr"/>
@@ -7729,12 +7789,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Tim Flanders (NO)</t>
+          <t>Melvin Gordon III (BAL)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="n">
-        <v>-45</v>
+        <v>-42</v>
       </c>
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="n">
@@ -7746,7 +7806,7 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J145" t="inlineStr"/>
@@ -7763,12 +7823,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Willie Carter (CHI)</t>
+          <t>Jonathan Williams (WAS)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="n">
-        <v>-46</v>
+        <v>-43</v>
       </c>
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="n">
@@ -7780,7 +7840,7 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J146" t="inlineStr"/>
@@ -7797,12 +7857,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Brennan Clay (DEN)</t>
+          <t>Kenyan Drake (CLE)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="n">
-        <v>-47</v>
+        <v>-44</v>
       </c>
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="n">
@@ -7814,7 +7874,7 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J147" t="inlineStr"/>
@@ -7831,12 +7891,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Nick Chubb (CLE)</t>
+          <t>Tim Flanders (NO)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="n">
-        <v>-48</v>
+        <v>-45</v>
       </c>
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="n">
@@ -7848,7 +7908,7 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J148" t="inlineStr"/>
@@ -7865,12 +7925,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Myles Gaskin (MIN)</t>
+          <t>Willie Carter (CHI)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="n">
-        <v>-49</v>
+        <v>-46</v>
       </c>
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="n">
@@ -7882,7 +7942,7 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J149" t="inlineStr"/>
@@ -7899,12 +7959,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Nyheim Hines (BUF)</t>
+          <t>Brennan Clay (DEN)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="n">
-        <v>-50</v>
+        <v>-47</v>
       </c>
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="n">
@@ -7916,7 +7976,7 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J150" t="inlineStr"/>
@@ -7933,12 +7993,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>John Kelly Jr. (CLE)</t>
+          <t>Nick Chubb (CLE)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="n">
-        <v>-51</v>
+        <v>-48</v>
       </c>
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="n">
@@ -7950,7 +8010,7 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J151" t="inlineStr"/>
@@ -7967,12 +8027,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Taquan Mizzell (NYG)</t>
+          <t>Myles Gaskin (MIN)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="n">
-        <v>-52</v>
+        <v>-49</v>
       </c>
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="n">
@@ -7984,7 +8044,7 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J152" t="inlineStr"/>
@@ -8001,12 +8061,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Leonard Fournette (BUF)</t>
+          <t>Nyheim Hines (BUF)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="n">
-        <v>-53</v>
+        <v>-50</v>
       </c>
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="n">
@@ -8018,7 +8078,7 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J153" t="inlineStr"/>
@@ -8035,12 +8095,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Marlon Mack (ARI)</t>
+          <t>Jason Cabinda (DET)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="n">
-        <v>-54</v>
+        <v>-51</v>
       </c>
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="n">
@@ -8052,7 +8112,7 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J154" t="inlineStr"/>
@@ -8069,12 +8129,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Jeremy McNichols (SF)</t>
+          <t>Taquan Mizzell (NYG)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="n">
-        <v>-55</v>
+        <v>-52</v>
       </c>
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="n">
@@ -8086,7 +8146,7 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J155" t="inlineStr"/>
@@ -8103,12 +8163,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Tarik Cohen (CAR)</t>
+          <t>Leonard Fournette (BUF)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="n">
-        <v>-56</v>
+        <v>-53</v>
       </c>
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="n">
@@ -8120,7 +8180,7 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
@@ -8137,12 +8197,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Corey Clement (ARI)</t>
+          <t>Jeremy McNichols (SF)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="n">
-        <v>-57</v>
+        <v>-54</v>
       </c>
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="n">
@@ -8154,7 +8214,7 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J157" t="inlineStr"/>
@@ -8171,12 +8231,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Xavier Omon (SF)</t>
+          <t>Snoop Conner (JAC)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="n">
-        <v>-58</v>
+        <v>-55</v>
       </c>
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="n">
@@ -8188,7 +8248,7 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J158" t="inlineStr"/>
@@ -8205,12 +8265,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Samkon Gado (TEN)</t>
+          <t>J.J. Taylor (HOU)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="n">
-        <v>-59</v>
+        <v>-56</v>
       </c>
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="n">
@@ -8222,7 +8282,7 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J159" t="inlineStr"/>
@@ -8239,12 +8299,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Chad Simpson (WAS)</t>
+          <t>Jacob Saylors (ATL)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="n">
-        <v>-60</v>
+        <v>-57</v>
       </c>
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="n">
@@ -8256,7 +8316,7 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J160" t="inlineStr"/>
@@ -8273,12 +8333,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Dantrell Savage (CAR)</t>
+          <t>Robert Burns (CHI)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="n">
-        <v>-61</v>
+        <v>-58</v>
       </c>
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="n">
@@ -8290,7 +8350,7 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J161" t="inlineStr"/>
@@ -8307,12 +8367,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Kenny Irons (CIN)</t>
+          <t>Zavier Scott (IND)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="n">
-        <v>-62</v>
+        <v>-59</v>
       </c>
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="n">
@@ -8324,7 +8384,7 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J162" t="inlineStr"/>
@@ -8341,12 +8401,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Spencer Brown (CAR)</t>
+          <t>Deneric Prince (KC)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="n">
-        <v>-63</v>
+        <v>-60</v>
       </c>
       <c r="E163" t="inlineStr"/>
       <c r="F163" t="n">
@@ -8358,7 +8418,7 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J163" t="inlineStr"/>
@@ -8375,12 +8435,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Jaret Patterson (LAC)</t>
+          <t>Jordan Mims (NO)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="n">
-        <v>-64</v>
+        <v>-61</v>
       </c>
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="n">
@@ -8392,7 +8452,7 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J164" t="inlineStr"/>
@@ -8409,12 +8469,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Julius Chestnut (TEN)</t>
+          <t>Chris Brooks (MIA)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="n">
-        <v>-65</v>
+        <v>-62</v>
       </c>
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="n">
@@ -8426,7 +8486,7 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J165" t="inlineStr"/>
@@ -8443,12 +8503,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Brittain Brown (LV)</t>
+          <t>Owen Wright (BAL)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="n">
-        <v>-66</v>
+        <v>-63</v>
       </c>
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="n">
@@ -8460,7 +8520,7 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J166" t="inlineStr"/>
@@ -8477,12 +8537,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Patrick Taylor Jr. (NE)</t>
+          <t>Ellis Merriweather (GB)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="n">
-        <v>-67</v>
+        <v>-64</v>
       </c>
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="n">
@@ -8494,7 +8554,7 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
@@ -8511,12 +8571,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>JaMycal Hasty (NE)</t>
+          <t>Mohamed Ibrahim (DET)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="n">
-        <v>-68</v>
+        <v>-65</v>
       </c>
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="n">
@@ -8528,7 +8588,7 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J168" t="inlineStr"/>
@@ -8545,12 +8605,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Mohamed Ibrahim (DET)</t>
+          <t>Evan Hull (IND)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="n">
-        <v>-69</v>
+        <v>-66</v>
       </c>
       <c r="E169" t="inlineStr"/>
       <c r="F169" t="n">
@@ -8562,7 +8622,7 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J169" t="inlineStr"/>
@@ -8579,12 +8639,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Demetric Felton Jr. (CIN)</t>
+          <t>Bryant Koback (SEA)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="n">
-        <v>-70</v>
+        <v>-67</v>
       </c>
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="n">
@@ -8596,7 +8656,7 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J170" t="inlineStr"/>
@@ -8613,12 +8673,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Jermar Jefferson (DET)</t>
+          <t>JaMycal Hasty (NE)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="n">
-        <v>-71</v>
+        <v>-68</v>
       </c>
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="n">
@@ -8630,7 +8690,7 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J171" t="inlineStr"/>
@@ -8647,12 +8707,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Qadree Ollison (PIT)</t>
+          <t>Hassan Haskins (TEN)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="n">
-        <v>-72</v>
+        <v>-69</v>
       </c>
       <c r="E172" t="inlineStr"/>
       <c r="F172" t="n">
@@ -8664,7 +8724,7 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J172" t="inlineStr"/>
@@ -8681,12 +8741,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Zonovan Knight (DET)</t>
+          <t>Tyler Badie (DEN)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="n">
-        <v>-73</v>
+        <v>-70</v>
       </c>
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="n">
@@ -8698,7 +8758,7 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J173" t="inlineStr"/>
@@ -8715,12 +8775,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Damien Harris (BUF)</t>
+          <t>Ronnie Rivers (LAR)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="n">
-        <v>-74</v>
+        <v>-71</v>
       </c>
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="n">
@@ -8732,7 +8792,7 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J174" t="inlineStr"/>
@@ -8749,12 +8809,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Patrick Laird (TB)</t>
+          <t>DeWayne McBride (MIN)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr"/>
       <c r="D175" t="n">
-        <v>-75</v>
+        <v>-72</v>
       </c>
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="n">
@@ -8766,7 +8826,7 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J175" t="inlineStr"/>
@@ -8783,12 +8843,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Derrick Gore (WAS)</t>
+          <t>Troy Hairston II (HOU)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="n">
-        <v>-76</v>
+        <v>-73</v>
       </c>
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="n">
@@ -8800,7 +8860,7 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J176" t="inlineStr"/>
@@ -8817,12 +8877,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>J.K. Dobbins (BAL)</t>
+          <t>Zonovan Knight (DET)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="n">
-        <v>-77</v>
+        <v>-74</v>
       </c>
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="n">
@@ -8834,7 +8894,7 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J177" t="inlineStr"/>
@@ -8851,12 +8911,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Eno Benjamin (NO)</t>
+          <t>Malik Davis (DAL)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="n">
-        <v>-78</v>
+        <v>-75</v>
       </c>
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="n">
@@ -8868,7 +8928,7 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J178" t="inlineStr"/>
@@ -8885,12 +8945,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>J.J. Taylor (HOU)</t>
+          <t>Xazavian Valladay (NYJ)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="n">
-        <v>-79</v>
+        <v>-76</v>
       </c>
       <c r="E179" t="inlineStr"/>
       <c r="F179" t="n">
@@ -8902,7 +8962,7 @@
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J179" t="inlineStr"/>
@@ -8919,12 +8979,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Austin Walter (LV)</t>
+          <t>Henry Pearson (GB)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="n">
-        <v>-80</v>
+        <v>-77</v>
       </c>
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="n">
@@ -8936,7 +8996,7 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J180" t="inlineStr"/>
@@ -8953,12 +9013,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Mike Weber (NYG)</t>
+          <t>Gary Brightwell (NYG)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="n">
-        <v>-81</v>
+        <v>-78</v>
       </c>
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="n">
@@ -8970,7 +9030,7 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J181" t="inlineStr"/>
@@ -8987,12 +9047,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Khalil Herbert (CHI)</t>
+          <t>Gerrid Doaks (HOU)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="n">
-        <v>-82</v>
+        <v>-79</v>
       </c>
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="n">
@@ -9004,7 +9064,7 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J182" t="inlineStr"/>
@@ -9021,12 +9081,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Troy Hairston II (HOU)</t>
+          <t>Isaiah Spiller (LAC)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="n">
-        <v>-83</v>
+        <v>-80</v>
       </c>
       <c r="E183" t="inlineStr"/>
       <c r="F183" t="n">
@@ -9038,7 +9098,7 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J183" t="inlineStr"/>
@@ -9055,12 +9115,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Ronnie Rivers (LAR)</t>
+          <t>Avery Williams (ATL)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="n">
-        <v>-84</v>
+        <v>-81</v>
       </c>
       <c r="E184" t="inlineStr"/>
       <c r="F184" t="n">
@@ -9072,7 +9132,7 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J184" t="inlineStr"/>
@@ -9089,12 +9149,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Javian Hawkins (TEN)</t>
+          <t>Sincere McCormick (LV)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="n">
-        <v>-85</v>
+        <v>-82</v>
       </c>
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="n">
@@ -9106,7 +9166,7 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J185" t="inlineStr"/>
@@ -9123,12 +9183,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Lew Nichols III (PHI)</t>
+          <t>Patrick Laird (TB)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="n">
-        <v>-86</v>
+        <v>-83</v>
       </c>
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="n">
@@ -9140,7 +9200,7 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J186" t="inlineStr"/>
@@ -9157,12 +9217,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Elijah Dotson (LAC)</t>
+          <t>Spencer Brown (CAR)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="n">
-        <v>-87</v>
+        <v>-84</v>
       </c>
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="n">
@@ -9174,7 +9234,7 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J187" t="inlineStr"/>
@@ -9191,12 +9251,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Jack Colletto (PIT)</t>
+          <t>Damien Harris (BUF)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="n">
-        <v>-88</v>
+        <v>-85</v>
       </c>
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="n">
@@ -9208,7 +9268,7 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J188" t="inlineStr"/>
@@ -9225,12 +9285,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Carlos Washington Jr. (ATL)</t>
+          <t>Travis Homer (CHI)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="n">
-        <v>-89</v>
+        <v>-86</v>
       </c>
       <c r="E189" t="inlineStr"/>
       <c r="F189" t="n">
@@ -9242,7 +9302,7 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J189" t="inlineStr"/>
@@ -9259,12 +9319,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Henry Pearson (GB)</t>
+          <t>Mike Weber (NYG)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="n">
-        <v>-90</v>
+        <v>-87</v>
       </c>
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="n">
@@ -9276,7 +9336,7 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J190" t="inlineStr"/>
@@ -9298,7 +9358,7 @@
       </c>
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="n">
-        <v>-91</v>
+        <v>-88</v>
       </c>
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="n">
@@ -9310,7 +9370,7 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J191" t="inlineStr"/>
@@ -9327,12 +9387,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Xazavian Valladay (NYJ)</t>
+          <t>Qadree Ollison (PIT)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="n">
-        <v>-92</v>
+        <v>-89</v>
       </c>
       <c r="E192" t="inlineStr"/>
       <c r="F192" t="n">
@@ -9344,7 +9404,7 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J192" t="inlineStr"/>
@@ -9361,12 +9421,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Evan Hull (IND)</t>
+          <t>Jermar Jefferson (DET)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr"/>
       <c r="D193" t="n">
-        <v>-93</v>
+        <v>-90</v>
       </c>
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="n">
@@ -9378,7 +9438,7 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J193" t="inlineStr"/>
@@ -9395,12 +9455,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Jacob Saylors (ATL)</t>
+          <t>Jonathan Ward (TEN)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="n">
-        <v>-94</v>
+        <v>-91</v>
       </c>
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="n">
@@ -9412,7 +9472,7 @@
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J194" t="inlineStr"/>
@@ -9429,12 +9489,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Hassan Hall (NYG)</t>
+          <t>Javian Hawkins (TEN)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="n">
-        <v>-95</v>
+        <v>-92</v>
       </c>
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="n">
@@ -9446,7 +9506,7 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J195" t="inlineStr"/>
@@ -9463,12 +9523,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Robert Burns (CHI)</t>
+          <t>Lew Nichols III (PHI)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="n">
-        <v>-96</v>
+        <v>-93</v>
       </c>
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="n">
@@ -9480,7 +9540,7 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J196" t="inlineStr"/>
@@ -9497,12 +9557,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>DeWayne McBride (MIN)</t>
+          <t>Elijah Dotson (LAC)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="n">
-        <v>-97</v>
+        <v>-94</v>
       </c>
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="n">
@@ -9514,7 +9574,7 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J197" t="inlineStr"/>
@@ -9531,12 +9591,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Zavier Scott (IND)</t>
+          <t>Jack Colletto (PIT)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr"/>
       <c r="D198" t="n">
-        <v>-98</v>
+        <v>-95</v>
       </c>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="n">
@@ -9548,7 +9608,7 @@
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J198" t="inlineStr"/>
@@ -9565,12 +9625,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Deneric Prince (KC)</t>
+          <t>Carlos Washington Jr. (ATL)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr"/>
       <c r="D199" t="n">
-        <v>-99</v>
+        <v>-96</v>
       </c>
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="n">
@@ -9582,7 +9642,7 @@
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J199" t="inlineStr"/>
@@ -9599,12 +9659,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Jordan Mims (NO)</t>
+          <t>Jaret Patterson (LAC)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr"/>
       <c r="D200" t="n">
-        <v>-100</v>
+        <v>-97</v>
       </c>
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="n">
@@ -9616,7 +9676,7 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J200" t="inlineStr"/>
@@ -9633,12 +9693,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Chris Brooks (MIA)</t>
+          <t>Demetric Felton Jr. (CIN)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr"/>
       <c r="D201" t="n">
-        <v>-101</v>
+        <v>-98</v>
       </c>
       <c r="E201" t="inlineStr"/>
       <c r="F201" t="n">
@@ -9650,7 +9710,7 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J201" t="inlineStr"/>
@@ -9667,12 +9727,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Owen Wright (BAL)</t>
+          <t>Julius Chestnut (TEN)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr"/>
       <c r="D202" t="n">
-        <v>-102</v>
+        <v>-99</v>
       </c>
       <c r="E202" t="inlineStr"/>
       <c r="F202" t="n">
@@ -9684,7 +9744,7 @@
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr">
         <is>
-          <t>8 - 10</t>
+          <t>9 - 12</t>
         </is>
       </c>
       <c r="J202" t="inlineStr"/>
@@ -9695,278 +9755,6 @@
       <c r="O202" t="inlineStr"/>
       <c r="P202" t="inlineStr"/>
     </row>
-    <row r="203">
-      <c r="A203" t="n">
-        <v>202</v>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>Ellis Merriweather (GB)</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr"/>
-      <c r="D203" t="n">
-        <v>-103</v>
-      </c>
-      <c r="E203" t="inlineStr"/>
-      <c r="F203" t="n">
-        <v>0</v>
-      </c>
-      <c r="G203" t="n">
-        <v>0</v>
-      </c>
-      <c r="H203" t="inlineStr"/>
-      <c r="I203" t="inlineStr">
-        <is>
-          <t>8 - 10</t>
-        </is>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="inlineStr"/>
-      <c r="N203" t="inlineStr"/>
-      <c r="O203" t="inlineStr"/>
-      <c r="P203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
-        <v>203</v>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>Chase Brown (CIN)</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr"/>
-      <c r="D204" t="n">
-        <v>-104</v>
-      </c>
-      <c r="E204" t="inlineStr"/>
-      <c r="F204" t="n">
-        <v>0</v>
-      </c>
-      <c r="G204" t="n">
-        <v>0</v>
-      </c>
-      <c r="H204" t="inlineStr"/>
-      <c r="I204" t="inlineStr">
-        <is>
-          <t>8 - 10</t>
-        </is>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="inlineStr"/>
-      <c r="N204" t="inlineStr"/>
-      <c r="O204" t="inlineStr"/>
-      <c r="P204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>204</v>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>Malik Davis (DAL)</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr"/>
-      <c r="D205" t="n">
-        <v>-105</v>
-      </c>
-      <c r="E205" t="inlineStr"/>
-      <c r="F205" t="n">
-        <v>0</v>
-      </c>
-      <c r="G205" t="n">
-        <v>0</v>
-      </c>
-      <c r="H205" t="inlineStr"/>
-      <c r="I205" t="inlineStr">
-        <is>
-          <t>8 - 10</t>
-        </is>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="inlineStr"/>
-      <c r="N205" t="inlineStr"/>
-      <c r="O205" t="inlineStr"/>
-      <c r="P205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>205</v>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Bryant Koback (SEA)</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr"/>
-      <c r="D206" t="n">
-        <v>-106</v>
-      </c>
-      <c r="E206" t="inlineStr"/>
-      <c r="F206" t="n">
-        <v>0</v>
-      </c>
-      <c r="G206" t="n">
-        <v>0</v>
-      </c>
-      <c r="H206" t="inlineStr"/>
-      <c r="I206" t="inlineStr">
-        <is>
-          <t>8 - 10</t>
-        </is>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="inlineStr"/>
-      <c r="N206" t="inlineStr"/>
-      <c r="O206" t="inlineStr"/>
-      <c r="P206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>206</v>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>Israel Abanikanda (NYJ)</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr"/>
-      <c r="D207" t="n">
-        <v>-107</v>
-      </c>
-      <c r="E207" t="inlineStr"/>
-      <c r="F207" t="n">
-        <v>0</v>
-      </c>
-      <c r="G207" t="n">
-        <v>0</v>
-      </c>
-      <c r="H207" t="inlineStr"/>
-      <c r="I207" t="inlineStr">
-        <is>
-          <t>8 - 10</t>
-        </is>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="inlineStr"/>
-      <c r="N207" t="inlineStr"/>
-      <c r="O207" t="inlineStr"/>
-      <c r="P207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>207</v>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Hassan Haskins (TEN)</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr"/>
-      <c r="D208" t="n">
-        <v>-108</v>
-      </c>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="n">
-        <v>0</v>
-      </c>
-      <c r="G208" t="n">
-        <v>0</v>
-      </c>
-      <c r="H208" t="inlineStr"/>
-      <c r="I208" t="inlineStr">
-        <is>
-          <t>8 - 10</t>
-        </is>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="inlineStr"/>
-      <c r="N208" t="inlineStr"/>
-      <c r="O208" t="inlineStr"/>
-      <c r="P208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" t="n">
-        <v>208</v>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>Tyler Badie (DEN)</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr"/>
-      <c r="D209" t="n">
-        <v>-109</v>
-      </c>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="n">
-        <v>0</v>
-      </c>
-      <c r="G209" t="n">
-        <v>0</v>
-      </c>
-      <c r="H209" t="inlineStr"/>
-      <c r="I209" t="inlineStr">
-        <is>
-          <t>8 - 10</t>
-        </is>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="inlineStr"/>
-      <c r="N209" t="inlineStr"/>
-      <c r="O209" t="inlineStr"/>
-      <c r="P209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" t="n">
-        <v>209</v>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>Levi Bell (SEA)</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr"/>
-      <c r="D210" t="n">
-        <v>-110</v>
-      </c>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="n">
-        <v>0</v>
-      </c>
-      <c r="G210" t="n">
-        <v>0</v>
-      </c>
-      <c r="H210" t="inlineStr"/>
-      <c r="I210" t="inlineStr">
-        <is>
-          <t>8 - 10</t>
-        </is>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="inlineStr"/>
-      <c r="N210" t="inlineStr"/>
-      <c r="O210" t="inlineStr"/>
-      <c r="P210" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/RB/RB_Analysis.xlsx
+++ b/RB/RB_Analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P202"/>
+  <dimension ref="A1:P201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,10 +525,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>51.8</v>
+        <v>55.9</v>
       </c>
       <c r="D2" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E2" t="n">
         <v>8.9</v>
@@ -544,7 +544,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J2" t="n">
@@ -579,48 +579,48 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>35</v>
+        <v>37.2</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E3" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>72.40000000000001</v>
+        <v>102.2</v>
       </c>
       <c r="H3" t="n">
-        <v>24.1</v>
+        <v>25.5</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>18.7</v>
+        <v>17</v>
       </c>
       <c r="K3" t="n">
-        <v>95.7</v>
+        <v>85.2</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="N3" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="O3" t="n">
         <v>7</v>
       </c>
       <c r="P3" t="n">
-        <v>32.3</v>
+        <v>40.2</v>
       </c>
     </row>
     <row r="4">
@@ -629,52 +629,52 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rhamondre Stevenson (NE)</t>
+          <t>Jahmyr Gibbs (DET)</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>31</v>
+        <v>34.2</v>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>57.8</v>
+        <v>88.89999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>19.3</v>
+        <v>22.2</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>16.7</v>
+        <v>14.8</v>
       </c>
       <c r="K4" t="n">
-        <v>91</v>
+        <v>79.8</v>
       </c>
       <c r="L4" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O4" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="P4" t="n">
-        <v>21.7</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="5">
@@ -683,52 +683,52 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jaylen Warren (PIT)</t>
+          <t>Rachaad White (TB)</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>28.7</v>
+        <v>29.1</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E5" t="n">
-        <v>7.6</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>64</v>
+        <v>94.39999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>16</v>
+        <v>18.9</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>12</v>
+        <v>14.6</v>
       </c>
       <c r="K5" t="n">
-        <v>91.8</v>
+        <v>58.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="N5" t="n">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="O5" t="n">
-        <v>3.2</v>
+        <v>4.6</v>
       </c>
       <c r="P5" t="n">
-        <v>15.8</v>
+        <v>40.2</v>
       </c>
     </row>
     <row r="6">
@@ -741,36 +741,36 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>4.2</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
-        <v>63.1</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>21.8</v>
+        <v>20.4</v>
       </c>
       <c r="K6" t="n">
-        <v>90.8</v>
+        <v>84.8</v>
       </c>
       <c r="L6" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="M6" t="n">
         <v>0.8</v>
@@ -779,10 +779,10 @@
         <v>1.8</v>
       </c>
       <c r="O6" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="P6" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -791,52 +791,52 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bijan Robinson (ATL)</t>
+          <t>Saquon Barkley (NYG)</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>26.7</v>
+        <v>28.8</v>
       </c>
       <c r="D7" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
-        <v>50.8</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>16.9</v>
+        <v>14.7</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>16.3</v>
+        <v>18.2</v>
       </c>
       <c r="K7" t="n">
-        <v>79</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="M7" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="O7" t="n">
         <v>4</v>
       </c>
       <c r="P7" t="n">
-        <v>17</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="8">
@@ -845,52 +845,52 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>David Montgomery (DET)</t>
+          <t>Rhamondre Stevenson (NE)</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>26.3</v>
+        <v>28.5</v>
       </c>
       <c r="D8" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E8" t="n">
-        <v>6.7</v>
+        <v>5.2</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>50.50000000000001</v>
+        <v>64.8</v>
       </c>
       <c r="H8" t="n">
-        <v>16.8</v>
+        <v>16.2</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>87.7</v>
+        <v>78</v>
       </c>
       <c r="L8" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N8" t="n">
-        <v>0.7</v>
+        <v>3.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P8" t="n">
-        <v>7.3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
@@ -899,52 +899,52 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Raheem Mostert (MIA)</t>
+          <t>Brian Robinson Jr. (WAS)</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>26.2</v>
+        <v>28.4</v>
       </c>
       <c r="D9" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>46.2</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>18</v>
+        <v>13.6</v>
       </c>
       <c r="K9" t="n">
-        <v>88.3</v>
+        <v>57.2</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="N9" t="n">
-        <v>0.3</v>
+        <v>3.6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.3</v>
+        <v>4.4</v>
       </c>
       <c r="P9" t="n">
-        <v>2.3</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="10">
@@ -953,52 +953,52 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Devin Singletary (HOU)</t>
+          <t>Alvin Kamara (NO)</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>26.1</v>
+        <v>27.6</v>
       </c>
       <c r="D10" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="F10" t="n">
         <v>4</v>
       </c>
       <c r="G10" t="n">
-        <v>60.7</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>15.2</v>
+        <v>18.1</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>17.8</v>
+        <v>12.5</v>
       </c>
       <c r="K10" t="n">
-        <v>76.5</v>
+        <v>49</v>
       </c>
       <c r="L10" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="N10" t="n">
-        <v>2.8</v>
+        <v>4.8</v>
       </c>
       <c r="O10" t="n">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="P10" t="n">
-        <v>17.8</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="11">
@@ -1007,52 +1007,52 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Brian Robinson Jr. (WAS)</t>
+          <t>Austin Ekeler (LAC)</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>26</v>
+        <v>26.6</v>
       </c>
       <c r="D11" t="n">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="E11" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>68</v>
+        <v>82.2</v>
       </c>
       <c r="H11" t="n">
-        <v>17</v>
+        <v>16.4</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>14.5</v>
+        <v>13.6</v>
       </c>
       <c r="K11" t="n">
-        <v>56.8</v>
+        <v>47.8</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="N11" t="n">
         <v>4</v>
       </c>
       <c r="O11" t="n">
-        <v>5</v>
+        <v>6.2</v>
       </c>
       <c r="P11" t="n">
-        <v>48.2</v>
+        <v>40.6</v>
       </c>
     </row>
     <row r="12">
@@ -1061,52 +1061,52 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Rachaad White (TB)</t>
+          <t>David Montgomery (DET)</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>25.8</v>
+        <v>26.5</v>
       </c>
       <c r="D12" t="n">
-        <v>-10</v>
+        <v>16</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>6.7</v>
       </c>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>76.5</v>
+        <v>50.50000000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>19.1</v>
+        <v>16.8</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K12" t="n">
-        <v>63.5</v>
+        <v>87.7</v>
       </c>
       <c r="L12" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="O12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>32.8</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="13">
@@ -1115,52 +1115,52 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Saquon Barkley (NYG)</t>
+          <t>Jaylen Warren (PIT)</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>24.5</v>
+        <v>26.2</v>
       </c>
       <c r="D13" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>5.2</v>
+        <v>7.3</v>
       </c>
       <c r="F13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G13" t="n">
-        <v>57.6</v>
+        <v>71.8</v>
       </c>
       <c r="H13" t="n">
         <v>14.4</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>13.8</v>
+        <v>10.6</v>
       </c>
       <c r="K13" t="n">
-        <v>71.2</v>
+        <v>77.2</v>
       </c>
       <c r="L13" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N13" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="O13" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P13" t="n">
-        <v>20.2</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="14">
@@ -1169,52 +1169,52 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Jahmyr Gibbs (DET)</t>
+          <t>Bijan Robinson (ATL)</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>24.5</v>
+        <v>25.8</v>
       </c>
       <c r="D14" t="n">
-        <v>-5</v>
+        <v>6</v>
       </c>
       <c r="E14" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G14" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H14" t="n">
-        <v>19.7</v>
+        <v>15.8</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K14" t="n">
-        <v>55.7</v>
+        <v>74.8</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="N14" t="n">
-        <v>4.3</v>
+        <v>1.5</v>
       </c>
       <c r="O14" t="n">
-        <v>6.3</v>
+        <v>4.2</v>
       </c>
       <c r="P14" t="n">
-        <v>37.7</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="15">
@@ -1223,52 +1223,52 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>James Cook (BUF)</t>
+          <t>Javonte Williams (DEN)</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>23.4</v>
+        <v>25.5</v>
       </c>
       <c r="D15" t="n">
-        <v>-2</v>
+        <v>7</v>
       </c>
       <c r="E15" t="n">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="F15" t="n">
         <v>4</v>
       </c>
       <c r="G15" t="n">
-        <v>55.09999999999999</v>
+        <v>57.2</v>
       </c>
       <c r="H15" t="n">
-        <v>13.8</v>
+        <v>14.3</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>12.8</v>
+        <v>19.2</v>
       </c>
       <c r="K15" t="n">
-        <v>61.2</v>
+        <v>66.5</v>
       </c>
       <c r="L15" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
+        <v>3</v>
+      </c>
+      <c r="O15" t="n">
         <v>3.8</v>
       </c>
-      <c r="O15" t="n">
-        <v>4.2</v>
-      </c>
       <c r="P15" t="n">
-        <v>29</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="16">
@@ -1277,52 +1277,52 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Jonathan Taylor (IND)</t>
+          <t>Travis Etienne Jr. (JAC)</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>23.4</v>
+        <v>25.3</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E16" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="F16" t="n">
+        <v>4</v>
+      </c>
+      <c r="G16" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="H16" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>8 - 12</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K16" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
         <v>3</v>
       </c>
-      <c r="G16" t="n">
-        <v>53.5</v>
-      </c>
-      <c r="H16" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>9 - 12</t>
-        </is>
-      </c>
-      <c r="J16" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K16" t="n">
-        <v>69</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2</v>
-      </c>
       <c r="O16" t="n">
-        <v>2</v>
+        <v>4.8</v>
       </c>
       <c r="P16" t="n">
-        <v>9.300000000000001</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
@@ -1331,52 +1331,52 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Isiah Pacheco (KC)</t>
+          <t>Jonathan Taylor (IND)</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>23.3</v>
+        <v>24.9</v>
       </c>
       <c r="D17" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>42.59999999999999</v>
+        <v>64.19999999999999</v>
       </c>
       <c r="H17" t="n">
-        <v>14.2</v>
+        <v>16</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>16.7</v>
+        <v>17</v>
       </c>
       <c r="K17" t="n">
-        <v>70</v>
+        <v>75.5</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="M17" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="N17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O17" t="n">
         <v>2</v>
       </c>
-      <c r="O17" t="n">
-        <v>2.3</v>
-      </c>
       <c r="P17" t="n">
-        <v>12</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="18">
@@ -1385,52 +1385,52 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>D'Andre Swift (PHI)</t>
+          <t>Devin Singletary (HOU)</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>23.2</v>
+        <v>24.8</v>
       </c>
       <c r="D18" t="n">
-        <v>10</v>
+        <v>-4</v>
       </c>
       <c r="E18" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="F18" t="n">
+        <v>5</v>
+      </c>
+      <c r="G18" t="n">
+        <v>67</v>
+      </c>
+      <c r="H18" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>8 - 12</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O18" t="n">
         <v>3</v>
       </c>
-      <c r="G18" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="H18" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>9 - 12</t>
-        </is>
-      </c>
-      <c r="J18" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K18" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="N18" t="n">
-        <v>2</v>
-      </c>
-      <c r="O18" t="n">
-        <v>2</v>
-      </c>
       <c r="P18" t="n">
-        <v>22</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="19">
@@ -1439,52 +1439,52 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Najee Harris (PIT)</t>
+          <t>James Cook (BUF)</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>22.3</v>
+        <v>24.8</v>
       </c>
       <c r="D19" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>4.8</v>
       </c>
       <c r="F19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G19" t="n">
-        <v>54.7</v>
+        <v>63.40000000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>13.7</v>
+        <v>12.7</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>14.8</v>
+        <v>13</v>
       </c>
       <c r="K19" t="n">
-        <v>71.2</v>
+        <v>62.4</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="M19" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="O19" t="n">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="P19" t="n">
-        <v>5.5</v>
+        <v>24.4</v>
       </c>
     </row>
     <row r="20">
@@ -1493,52 +1493,52 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Alvin Kamara (NO)</t>
+          <t>D'Andre Swift (PHI)</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>22</v>
+        <v>23.9</v>
       </c>
       <c r="D20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E20" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G20" t="n">
-        <v>45.4</v>
+        <v>52.9</v>
       </c>
       <c r="H20" t="n">
-        <v>15.1</v>
+        <v>13.2</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K20" t="n">
-        <v>45.7</v>
+        <v>64</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O20" t="n">
-        <v>5.7</v>
+        <v>2.2</v>
       </c>
       <c r="P20" t="n">
-        <v>42.3</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="21">
@@ -1547,52 +1547,52 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Javonte Williams (DEN)</t>
+          <t>Raheem Mostert (MIA)</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>21.9</v>
+        <v>23.4</v>
       </c>
       <c r="D21" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G21" t="n">
-        <v>38.4</v>
+        <v>56.8</v>
       </c>
       <c r="H21" t="n">
-        <v>12.8</v>
+        <v>14.2</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="K21" t="n">
-        <v>60.3</v>
+        <v>77.8</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="O21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>17.7</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="22">
@@ -1601,52 +1601,52 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Austin Ekeler (LAC)</t>
+          <t>Joe Mixon (CIN)</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>21.6</v>
+        <v>23.2</v>
       </c>
       <c r="D22" t="n">
-        <v>-12</v>
+        <v>-14</v>
       </c>
       <c r="E22" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="F22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>58.9</v>
+        <v>79.3</v>
       </c>
       <c r="H22" t="n">
-        <v>14.7</v>
+        <v>15.9</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="K22" t="n">
-        <v>52.5</v>
+        <v>51</v>
       </c>
       <c r="L22" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M22" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="N22" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O22" t="n">
-        <v>5.8</v>
+        <v>3.8</v>
       </c>
       <c r="P22" t="n">
-        <v>27.2</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="23">
@@ -1655,52 +1655,52 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Jerome Ford (CLE)</t>
+          <t>Keaton Mitchell (BAL)</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>21.5</v>
+        <v>22</v>
       </c>
       <c r="D23" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E23" t="n">
-        <v>4.3</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F23" t="n">
         <v>4</v>
       </c>
       <c r="G23" t="n">
-        <v>48.4</v>
+        <v>50</v>
       </c>
       <c r="H23" t="n">
-        <v>12.1</v>
+        <v>12.5</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>14.5</v>
+        <v>7.2</v>
       </c>
       <c r="K23" t="n">
-        <v>61.8</v>
+        <v>67.2</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2</v>
+        <v>2.8</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="N23" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="O23" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="P23" t="n">
-        <v>14.2</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="24">
@@ -1709,52 +1709,52 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Tony Pollard (DAL)</t>
+          <t>Derrick Henry (TEN)</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>21.3</v>
+        <v>22</v>
       </c>
       <c r="D24" t="n">
-        <v>-11</v>
+        <v>-7</v>
       </c>
       <c r="E24" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="F24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G24" t="n">
-        <v>55.09999999999999</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="H24" t="n">
-        <v>13.8</v>
+        <v>12.9</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>13</v>
+        <v>15.6</v>
       </c>
       <c r="K24" t="n">
-        <v>61.5</v>
+        <v>62.8</v>
       </c>
       <c r="L24" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="N24" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="O24" t="n">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="P24" t="n">
-        <v>13.8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -1763,52 +1763,52 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Keaton Mitchell (BAL)</t>
+          <t>Breece Hall (NYJ)</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>21.2</v>
+        <v>21.9</v>
       </c>
       <c r="D25" t="n">
-        <v>-4</v>
+        <v>-13</v>
       </c>
       <c r="E25" t="n">
-        <v>9.300000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="F25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G25" t="n">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="H25" t="n">
-        <v>12.5</v>
+        <v>14.4</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>7.2</v>
+        <v>11.6</v>
       </c>
       <c r="K25" t="n">
-        <v>67.2</v>
+        <v>28.6</v>
       </c>
       <c r="L25" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1.2</v>
+        <v>5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.5</v>
+        <v>6.2</v>
       </c>
       <c r="P25" t="n">
-        <v>15.2</v>
+        <v>41.4</v>
       </c>
     </row>
     <row r="26">
@@ -1817,52 +1817,52 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Ty Chandler (MIN)</t>
+          <t>Najee Harris (PIT)</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>20.7</v>
+        <v>21.6</v>
       </c>
       <c r="D26" t="n">
-        <v>16</v>
+        <v>-11</v>
       </c>
       <c r="E26" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G26" t="n">
-        <v>25.5</v>
+        <v>65.2</v>
       </c>
       <c r="H26" t="n">
+        <v>13</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>8 - 12</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="K26" t="n">
+        <v>59.6</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="N26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O26" t="n">
+        <v>3</v>
+      </c>
+      <c r="P26" t="n">
         <v>12.8</v>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>9 - 12</t>
-        </is>
-      </c>
-      <c r="J26" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K26" t="n">
-        <v>59</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N26" t="n">
-        <v>2</v>
-      </c>
-      <c r="O26" t="n">
-        <v>2</v>
-      </c>
-      <c r="P26" t="n">
-        <v>18.5</v>
       </c>
     </row>
     <row r="27">
@@ -1871,52 +1871,52 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Joe Mixon (CIN)</t>
+          <t>Tony Pollard (DAL)</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>18.6</v>
+        <v>21.3</v>
       </c>
       <c r="D27" t="n">
-        <v>-19</v>
+        <v>-6</v>
       </c>
       <c r="E27" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="F27" t="n">
+        <v>5</v>
+      </c>
+      <c r="G27" t="n">
+        <v>61.59999999999999</v>
+      </c>
+      <c r="H27" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>8 - 12</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K27" t="n">
+        <v>59.8</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O27" t="n">
         <v>3.4</v>
       </c>
-      <c r="F27" t="n">
-        <v>4</v>
-      </c>
-      <c r="G27" t="n">
-        <v>59.3</v>
-      </c>
-      <c r="H27" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>9 - 12</t>
-        </is>
-      </c>
-      <c r="J27" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K27" t="n">
-        <v>42</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N27" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O27" t="n">
-        <v>4</v>
-      </c>
       <c r="P27" t="n">
-        <v>26.2</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="28">
@@ -1925,52 +1925,52 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>D'Onta Foreman (CHI)</t>
+          <t>Isiah Pacheco (KC)</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>18.5</v>
+        <v>21.3</v>
       </c>
       <c r="D28" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E28" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="F28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G28" t="n">
-        <v>32.9</v>
+        <v>49.3</v>
       </c>
       <c r="H28" t="n">
-        <v>11</v>
+        <v>12.3</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>15.7</v>
+        <v>14.5</v>
       </c>
       <c r="K28" t="n">
-        <v>59</v>
+        <v>62.5</v>
       </c>
       <c r="L28" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="M28" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="N28" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="O28" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="P28" t="n">
-        <v>4</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="29">
@@ -1979,52 +1979,52 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Alexander Mattison (MIN)</t>
+          <t>Jerome Ford (CLE)</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>18.3</v>
+        <v>20.8</v>
       </c>
       <c r="D29" t="n">
-        <v>8</v>
+        <v>-4</v>
       </c>
       <c r="E29" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G29" t="n">
-        <v>28.6</v>
+        <v>53.3</v>
       </c>
       <c r="H29" t="n">
-        <v>9.5</v>
+        <v>10.7</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>14</v>
+        <v>13.4</v>
       </c>
       <c r="K29" t="n">
-        <v>50.7</v>
+        <v>56.8</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N29" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="O29" t="n">
-        <v>2</v>
+        <v>4.4</v>
       </c>
       <c r="P29" t="n">
-        <v>18</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="30">
@@ -2037,33 +2037,33 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>18</v>
+        <v>19.3</v>
       </c>
       <c r="D30" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E30" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="F30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G30" t="n">
-        <v>45.3</v>
+        <v>52.7</v>
       </c>
       <c r="H30" t="n">
-        <v>11.3</v>
+        <v>10.5</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>12.2</v>
+        <v>12.8</v>
       </c>
       <c r="K30" t="n">
-        <v>45.8</v>
+        <v>42.2</v>
       </c>
       <c r="L30" t="n">
         <v>0.2</v>
@@ -2072,13 +2072,13 @@
         <v>0.2</v>
       </c>
       <c r="N30" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="O30" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P30" t="n">
-        <v>20</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="31">
@@ -2087,52 +2087,52 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Derrick Henry (TEN)</t>
+          <t>AJ Dillon (GB)</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>17.9</v>
+        <v>18.5</v>
       </c>
       <c r="D31" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="F31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G31" t="n">
-        <v>48.2</v>
+        <v>45.8</v>
       </c>
       <c r="H31" t="n">
-        <v>12</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>14</v>
+        <v>10.4</v>
       </c>
       <c r="K31" t="n">
-        <v>53.2</v>
+        <v>38.6</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M31" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="O31" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="P31" t="n">
-        <v>7.2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32">
@@ -2141,52 +2141,52 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Travis Etienne Jr. (JAC)</t>
+          <t>Alexander Mattison (MIN)</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>17.8</v>
       </c>
       <c r="D32" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E32" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="F32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G32" t="n">
-        <v>27.9</v>
+        <v>41.2</v>
       </c>
       <c r="H32" t="n">
-        <v>9.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>14.3</v>
+        <v>13.6</v>
       </c>
       <c r="K32" t="n">
-        <v>47.7</v>
+        <v>47</v>
       </c>
       <c r="L32" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="O32" t="n">
-        <v>4.3</v>
+        <v>1.8</v>
       </c>
       <c r="P32" t="n">
-        <v>15.3</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="33">
@@ -2195,52 +2195,52 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Royce Freeman (LAR)</t>
+          <t>Gus Edwards (BAL)</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>17.5</v>
+        <v>17.7</v>
       </c>
       <c r="D33" t="n">
+        <v>-27</v>
+      </c>
+      <c r="E33" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F33" t="n">
+        <v>5</v>
+      </c>
+      <c r="G33" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="H33" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>8 - 12</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
         <v>11</v>
       </c>
-      <c r="E33" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="F33" t="n">
-        <v>3</v>
-      </c>
-      <c r="G33" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="H33" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>9 - 12</t>
-        </is>
-      </c>
-      <c r="J33" t="n">
-        <v>14</v>
-      </c>
       <c r="K33" t="n">
-        <v>60.7</v>
+        <v>48.8</v>
       </c>
       <c r="L33" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="M33" t="n">
-        <v>0.3</v>
+        <v>1.6</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="O33" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="34">
@@ -2249,52 +2249,52 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>AJ Dillon (GB)</t>
+          <t>Aaron Jones (GB)</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>17.3</v>
+        <v>17.1</v>
       </c>
       <c r="D34" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="E34" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="F34" t="n">
         <v>4</v>
       </c>
       <c r="G34" t="n">
-        <v>35.6</v>
+        <v>38.6</v>
       </c>
       <c r="H34" t="n">
-        <v>8.9</v>
+        <v>9.6</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="K34" t="n">
-        <v>45.5</v>
+        <v>37.8</v>
       </c>
       <c r="L34" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N34" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="O34" t="n">
-        <v>2.8</v>
+        <v>4.8</v>
       </c>
       <c r="P34" t="n">
-        <v>21</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="35">
@@ -2303,52 +2303,52 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Breece Hall (NYJ)</t>
+          <t>D'Onta Foreman (CHI)</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>17</v>
       </c>
       <c r="D35" t="n">
-        <v>-16</v>
+        <v>4</v>
       </c>
       <c r="E35" t="n">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="F35" t="n">
         <v>4</v>
       </c>
       <c r="G35" t="n">
-        <v>50.7</v>
+        <v>37.5</v>
       </c>
       <c r="H35" t="n">
-        <v>12.7</v>
+        <v>9.4</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="K35" t="n">
-        <v>31.5</v>
+        <v>52.8</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N35" t="n">
-        <v>4.8</v>
+        <v>0.8</v>
       </c>
       <c r="O35" t="n">
-        <v>5.5</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
-        <v>32.8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="36">
@@ -2361,10 +2361,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>16.4</v>
+        <v>16.8</v>
       </c>
       <c r="D36" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E36" t="n">
         <v>4.5</v>
@@ -2380,7 +2380,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J36" t="n">
@@ -2411,52 +2411,52 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Aaron Jones (GB)</t>
+          <t>Royce Freeman (LAR)</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="D37" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E37" t="n">
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
       <c r="F37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G37" t="n">
-        <v>30</v>
+        <v>34.6</v>
       </c>
       <c r="H37" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>12.3</v>
+        <v>12.8</v>
       </c>
       <c r="K37" t="n">
-        <v>40.7</v>
+        <v>56.5</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M37" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>4.7</v>
+        <v>0.2</v>
       </c>
       <c r="P37" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -2465,52 +2465,52 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Ezekiel Elliott (NE)</t>
+          <t>Kenneth Walker III (SEA)</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>15</v>
+        <v>16.3</v>
       </c>
       <c r="D38" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E38" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="F38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G38" t="n">
-        <v>24.2</v>
+        <v>33</v>
       </c>
       <c r="H38" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>9.300000000000001</v>
+        <v>10</v>
       </c>
       <c r="K38" t="n">
-        <v>39</v>
+        <v>40.8</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="O38" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="P38" t="n">
-        <v>18.3</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="39">
@@ -2523,48 +2523,48 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>14.3</v>
+        <v>16.1</v>
       </c>
       <c r="D39" t="n">
         <v>-6</v>
       </c>
       <c r="E39" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="F39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G39" t="n">
-        <v>35.2</v>
+        <v>43.59999999999999</v>
       </c>
       <c r="H39" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>8 - 12</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>9 - 12</t>
-        </is>
-      </c>
-      <c r="J39" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="K39" t="n">
-        <v>36.5</v>
+        <v>39.8</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O39" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P39" t="n">
-        <v>14</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="40">
@@ -2573,14 +2573,14 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Gus Edwards (BAL)</t>
+          <t>Antonio Gibson (WAS)</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>14.1</v>
+        <v>15.9</v>
       </c>
       <c r="D40" t="n">
-        <v>-23</v>
+        <v>-8</v>
       </c>
       <c r="E40" t="n">
         <v>4.6</v>
@@ -2589,36 +2589,36 @@
         <v>4</v>
       </c>
       <c r="G40" t="n">
-        <v>52.7</v>
+        <v>45</v>
       </c>
       <c r="H40" t="n">
-        <v>13.2</v>
+        <v>11.2</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="K40" t="n">
-        <v>41</v>
+        <v>20.5</v>
       </c>
       <c r="L40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="O40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P40" t="n">
-        <v>5.8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41">
@@ -2627,37 +2627,37 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Antonio Gibson (WAS)</t>
+          <t>Ezekiel Elliott (NE)</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>13.9</v>
+        <v>15</v>
       </c>
       <c r="D41" t="n">
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="E41" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="F41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G41" t="n">
-        <v>35.8</v>
+        <v>27.8</v>
       </c>
       <c r="H41" t="n">
-        <v>11.9</v>
+        <v>7</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>5.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K41" t="n">
-        <v>22.7</v>
+        <v>38.2</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -2666,13 +2666,13 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>4.3</v>
+        <v>1.8</v>
       </c>
       <c r="O41" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="P41" t="n">
-        <v>33.3</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="42">
@@ -2685,33 +2685,33 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>13.9</v>
+        <v>14.2</v>
       </c>
       <c r="D42" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E42" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G42" t="n">
-        <v>17.1</v>
+        <v>22.8</v>
       </c>
       <c r="H42" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="K42" t="n">
-        <v>31</v>
+        <v>28.3</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -2720,13 +2720,13 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O42" t="n">
         <v>3</v>
       </c>
-      <c r="O42" t="n">
-        <v>3.5</v>
-      </c>
       <c r="P42" t="n">
-        <v>24.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43">
@@ -2739,48 +2739,48 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>13.7</v>
+        <v>14</v>
       </c>
       <c r="D43" t="n">
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="E43" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="F43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G43" t="n">
-        <v>34.6</v>
+        <v>38.7</v>
       </c>
       <c r="H43" t="n">
-        <v>11.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="K43" t="n">
-        <v>23.3</v>
+        <v>18.8</v>
       </c>
       <c r="L43" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="M43" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="N43" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="O43" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="P43" t="n">
-        <v>35.3</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="44">
@@ -2789,37 +2789,37 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Kenneth Walker III (SEA)</t>
+          <t>Emari Demercado (ARI)</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D44" t="n">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="E44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G44" t="n">
-        <v>25</v>
+        <v>10.4</v>
       </c>
       <c r="H44" t="n">
-        <v>8.300000000000001</v>
+        <v>5.2</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>10.7</v>
+        <v>11.5</v>
       </c>
       <c r="K44" t="n">
-        <v>32.3</v>
+        <v>46.5</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -2828,13 +2828,13 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O44" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="P44" t="n">
-        <v>21</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="45">
@@ -2843,52 +2843,52 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Tyler Allgeier (ATL)</t>
+          <t>Kareem Hunt (CLE)</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>13.3</v>
+        <v>12.6</v>
       </c>
       <c r="D45" t="n">
-        <v>3</v>
+        <v>-11</v>
       </c>
       <c r="E45" t="n">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="F45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G45" t="n">
-        <v>22.2</v>
+        <v>41.60000000000001</v>
       </c>
       <c r="H45" t="n">
-        <v>7.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>10.3</v>
+        <v>11.4</v>
       </c>
       <c r="K45" t="n">
-        <v>44.7</v>
+        <v>36.6</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="N45" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O45" t="n">
         <v>1</v>
       </c>
-      <c r="O45" t="n">
-        <v>1.3</v>
-      </c>
       <c r="P45" t="n">
-        <v>-0.7</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="46">
@@ -2901,33 +2901,33 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="D46" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E46" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G46" t="n">
-        <v>6.1</v>
+        <v>11.9</v>
       </c>
       <c r="H46" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K46" t="n">
-        <v>35</v>
+        <v>29.5</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -2939,10 +2939,10 @@
         <v>2</v>
       </c>
       <c r="O46" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="P46" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
@@ -2951,52 +2951,52 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Latavius Murray (BUF)</t>
+          <t>Zack Moss (IND)</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>11.5</v>
+        <v>12.2</v>
       </c>
       <c r="D47" t="n">
-        <v>-8</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>4.6</v>
+        <v>5.5</v>
       </c>
       <c r="F47" t="n">
         <v>4</v>
       </c>
       <c r="G47" t="n">
-        <v>28.2</v>
+        <v>26.2</v>
       </c>
       <c r="H47" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
       <c r="K47" t="n">
-        <v>34.2</v>
+        <v>37.2</v>
       </c>
       <c r="L47" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="M47" t="n">
         <v>0.2</v>
       </c>
       <c r="N47" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="O47" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="P47" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="48">
@@ -3005,52 +3005,52 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>D'Ernest Johnson (JAC)</t>
+          <t>Tyler Allgeier (ATL)</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>11.1</v>
+        <v>12.2</v>
       </c>
       <c r="D48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G48" t="n">
-        <v>19.5</v>
+        <v>25.3</v>
       </c>
       <c r="H48" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>5.7</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K48" t="n">
-        <v>17</v>
+        <v>41.2</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N48" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="O48" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="P48" t="n">
-        <v>34.7</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="49">
@@ -3059,52 +3059,52 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Cam Akers (MIN)</t>
+          <t>Ty Chandler (MIN)</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>10.7</v>
+        <v>12.1</v>
       </c>
       <c r="D49" t="n">
-        <v>20</v>
+        <v>-2</v>
       </c>
       <c r="E49" t="n">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G49" t="n">
-        <v>6.8</v>
+        <v>27.6</v>
       </c>
       <c r="H49" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="K49" t="n">
-        <v>25</v>
+        <v>31.5</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N49" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="O49" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="P49" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50">
@@ -3113,37 +3113,37 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Miles Sanders (CAR)</t>
+          <t>Roschon Johnson (CHI)</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>10.5</v>
+        <v>11.3</v>
       </c>
       <c r="D50" t="n">
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="E50" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="F50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G50" t="n">
-        <v>21.1</v>
+        <v>31.3</v>
       </c>
       <c r="H50" t="n">
-        <v>5.3</v>
+        <v>6.3</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>8.5</v>
+        <v>5.8</v>
       </c>
       <c r="K50" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -3152,13 +3152,13 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="O50" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="P50" t="n">
-        <v>9.800000000000001</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="51">
@@ -3167,52 +3167,52 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Kareem Hunt (CLE)</t>
+          <t>D'Ernest Johnson (JAC)</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>10.4</v>
+        <v>11</v>
       </c>
       <c r="D51" t="n">
-        <v>-11</v>
+        <v>4</v>
       </c>
       <c r="E51" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="F51" t="n">
         <v>4</v>
       </c>
       <c r="G51" t="n">
-        <v>27.9</v>
+        <v>20.3</v>
       </c>
       <c r="H51" t="n">
-        <v>7</v>
+        <v>5.1</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>10.8</v>
+        <v>4.8</v>
       </c>
       <c r="K51" t="n">
-        <v>32</v>
+        <v>14.8</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O51" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="P51" t="n">
-        <v>0.2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52">
@@ -3221,52 +3221,52 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Rico Dowdle (DAL)</t>
+          <t>Cam Akers (MIN)</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>9.699999999999999</v>
+        <v>10.7</v>
       </c>
       <c r="D52" t="n">
-        <v>-14</v>
+        <v>6</v>
       </c>
       <c r="E52" t="n">
-        <v>4.8</v>
+        <v>2.6</v>
       </c>
       <c r="F52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G52" t="n">
-        <v>28.3</v>
+        <v>16.3</v>
       </c>
       <c r="H52" t="n">
-        <v>7.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>6.2</v>
+        <v>8.5</v>
       </c>
       <c r="K52" t="n">
-        <v>30.2</v>
+        <v>22</v>
       </c>
       <c r="L52" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="N52" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="O52" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="P52" t="n">
-        <v>3</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="53">
@@ -3275,52 +3275,52 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Zack Moss (IND)</t>
+          <t>Latavius Murray (BUF)</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>8.800000000000001</v>
+        <v>10.6</v>
       </c>
       <c r="D53" t="n">
-        <v>4</v>
+        <v>-9</v>
       </c>
       <c r="E53" t="n">
-        <v>5.2</v>
+        <v>4.1</v>
       </c>
       <c r="F53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G53" t="n">
-        <v>11.8</v>
+        <v>30.3</v>
       </c>
       <c r="H53" t="n">
-        <v>3.9</v>
+        <v>6.1</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>5.3</v>
+        <v>7</v>
       </c>
       <c r="K53" t="n">
-        <v>27.7</v>
+        <v>28.8</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N53" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="O53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P53" t="n">
-        <v>5</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="54">
@@ -3329,52 +3329,52 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Elijah Mitchell (SF)</t>
+          <t>Tyjae Spears (TEN)</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>8</v>
+        <v>9.6</v>
       </c>
       <c r="D54" t="n">
-        <v>11</v>
+        <v>-9</v>
       </c>
       <c r="E54" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="F54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G54" t="n">
-        <v>9.299999999999999</v>
+        <v>29.1</v>
       </c>
       <c r="H54" t="n">
-        <v>3.1</v>
+        <v>5.8</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>6.3</v>
+        <v>3.8</v>
       </c>
       <c r="K54" t="n">
-        <v>28.7</v>
+        <v>16.6</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>0.3</v>
+        <v>2.8</v>
       </c>
       <c r="O54" t="n">
-        <v>0.3</v>
+        <v>4</v>
       </c>
       <c r="P54" t="n">
-        <v>-1</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="55">
@@ -3383,52 +3383,52 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Tyjae Spears (TEN)</t>
+          <t>Rico Dowdle (DAL)</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>7.7</v>
+        <v>9.6</v>
       </c>
       <c r="D55" t="n">
-        <v>-8</v>
+        <v>-13</v>
       </c>
       <c r="E55" t="n">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
       <c r="F55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G55" t="n">
-        <v>22.5</v>
+        <v>32.8</v>
       </c>
       <c r="H55" t="n">
-        <v>5.6</v>
+        <v>6.6</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K55" t="n">
-        <v>14</v>
+        <v>27.8</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N55" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="O55" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P55" t="n">
-        <v>14.8</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="56">
@@ -3437,37 +3437,37 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Roschon Johnson (CHI)</t>
+          <t>Dameon Pierce (HOU)</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>7.1</v>
+        <v>9.5</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E56" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="F56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G56" t="n">
-        <v>12.7</v>
+        <v>7.399999999999999</v>
       </c>
       <c r="H56" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>4.3</v>
+        <v>8.5</v>
       </c>
       <c r="K56" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -3476,13 +3476,13 @@
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="O56" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="P56" t="n">
-        <v>7.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -3491,37 +3491,37 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Cordarrelle Patterson (ATL)</t>
+          <t>Miles Sanders (CAR)</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>6.2</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D57" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E57" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F57" t="n">
         <v>5</v>
       </c>
-      <c r="E57" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="F57" t="n">
-        <v>3</v>
-      </c>
       <c r="G57" t="n">
-        <v>9.6</v>
+        <v>21.1</v>
       </c>
       <c r="H57" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>4</v>
+        <v>7.2</v>
       </c>
       <c r="K57" t="n">
-        <v>18.7</v>
+        <v>22.4</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -3530,13 +3530,13 @@
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="O57" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="P57" t="n">
-        <v>3.3</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="58">
@@ -3545,52 +3545,52 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Kenneth Gainwell (PHI)</t>
+          <t>Justice Hill (BAL)</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>6.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="E58" t="n">
-        <v>8.199999999999999</v>
+        <v>3.8</v>
       </c>
       <c r="F58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G58" t="n">
-        <v>16.4</v>
+        <v>19</v>
       </c>
       <c r="H58" t="n">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K58" t="n">
-        <v>16.3</v>
+        <v>18.8</v>
       </c>
       <c r="L58" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="O58" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="P58" t="n">
-        <v>5</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="59">
@@ -3599,52 +3599,52 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Chris Rodriguez Jr. (WAS)</t>
+          <t>Salvon Ahmed (MIA)</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>6.1</v>
+        <v>7.2</v>
       </c>
       <c r="D59" t="n">
-        <v>13</v>
+        <v>-5</v>
       </c>
       <c r="E59" t="n">
-        <v>6.4</v>
+        <v>1.4</v>
       </c>
       <c r="F59" t="n">
         <v>3</v>
       </c>
       <c r="G59" t="n">
-        <v>5.9</v>
+        <v>21</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J59" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K59" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>3</v>
+      </c>
+      <c r="O59" t="n">
         <v>3.3</v>
       </c>
-      <c r="K59" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="L59" t="n">
-        <v>0</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="O59" t="n">
-        <v>0.3</v>
-      </c>
       <c r="P59" t="n">
-        <v>1.7</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="60">
@@ -3653,52 +3653,52 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Justice Hill (BAL)</t>
+          <t>Kenneth Gainwell (PHI)</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>6.1</v>
+        <v>7.1</v>
       </c>
       <c r="D60" t="n">
-        <v>3</v>
+        <v>-8</v>
       </c>
       <c r="E60" t="n">
-        <v>3.8</v>
+        <v>5.6</v>
       </c>
       <c r="F60" t="n">
         <v>4</v>
       </c>
       <c r="G60" t="n">
-        <v>9.5</v>
+        <v>22</v>
       </c>
       <c r="H60" t="n">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>5.2</v>
+        <v>2</v>
       </c>
       <c r="K60" t="n">
-        <v>19.8</v>
+        <v>11.2</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N60" t="n">
-        <v>0.2</v>
+        <v>2.2</v>
       </c>
       <c r="O60" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="P60" t="n">
-        <v>1.5</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="61">
@@ -3707,52 +3707,52 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Derrick Gore (WAS)</t>
+          <t>Kendre Miller (NO)</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="D61" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E61" t="n">
-        <v>11.5</v>
+        <v>2.5</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G61" t="n">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="H61" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J61" t="n">
         <v>2</v>
       </c>
       <c r="K61" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
-      <c r="M61" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" t="n">
-        <v>0</v>
-      </c>
       <c r="O61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P61" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62">
@@ -3761,37 +3761,37 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Salvon Ahmed (MIA)</t>
+          <t>Elijah Mitchell (SF)</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="D62" t="n">
-        <v>-8</v>
+        <v>9</v>
       </c>
       <c r="E62" t="n">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="F62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G62" t="n">
-        <v>15.3</v>
+        <v>9.5</v>
       </c>
       <c r="H62" t="n">
-        <v>7.6</v>
+        <v>2.4</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="K62" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -3800,13 +3800,13 @@
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>2.5</v>
+        <v>0.2</v>
       </c>
       <c r="O62" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="P62" t="n">
-        <v>16.5</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="63">
@@ -3815,40 +3815,40 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Emanuel Wilson (GB)</t>
+          <t>Chris Rodriguez Jr. (WAS)</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5.6</v>
+        <v>6.1</v>
       </c>
       <c r="D63" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E63" t="n">
-        <v>7.9</v>
+        <v>6.4</v>
       </c>
       <c r="F63" t="n">
         <v>3</v>
       </c>
       <c r="G63" t="n">
-        <v>7.4</v>
+        <v>5.9</v>
       </c>
       <c r="H63" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="K63" t="n">
-        <v>18.3</v>
+        <v>21.3</v>
       </c>
       <c r="L63" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
@@ -3857,10 +3857,10 @@
         <v>0.3</v>
       </c>
       <c r="O63" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="P63" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="64">
@@ -3869,37 +3869,37 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Kendre Miller (NO)</t>
+          <t>Jaleel McLaughlin (DEN)</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="D64" t="n">
-        <v>14</v>
+        <v>-5</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G64" t="n">
-        <v>4.1</v>
+        <v>16</v>
       </c>
       <c r="H64" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
@@ -3908,13 +3908,13 @@
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="O64" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="P64" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65">
@@ -3923,52 +3923,52 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Dameon Pierce (HOU)</t>
+          <t>Derrick Gore (WAS)</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="D65" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E65" t="n">
-        <v>2.8</v>
+        <v>11.5</v>
       </c>
       <c r="F65" t="n">
         <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="H65" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K65" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M65" t="n">
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -3977,37 +3977,37 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Jerick McKinnon (KC)</t>
+          <t>Jamaal Williams (NO)</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="D66" t="n">
-        <v>-11</v>
+        <v>-5</v>
       </c>
       <c r="E66" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="F66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G66" t="n">
-        <v>13.9</v>
+        <v>13</v>
       </c>
       <c r="H66" t="n">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="K66" t="n">
-        <v>4.5</v>
+        <v>12.2</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
@@ -4016,13 +4016,13 @@
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="O66" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="P66" t="n">
-        <v>15</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="67">
@@ -4031,52 +4031,52 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Joshua Kelley (LAC)</t>
+          <t>Emanuel Wilson (GB)</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4.8</v>
+        <v>5.7</v>
       </c>
       <c r="D67" t="n">
-        <v>-4</v>
+        <v>7</v>
       </c>
       <c r="E67" t="n">
-        <v>3.2</v>
+        <v>7.9</v>
       </c>
       <c r="F67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G67" t="n">
-        <v>9.5</v>
+        <v>7.4</v>
       </c>
       <c r="H67" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="K67" t="n">
-        <v>13.8</v>
+        <v>18.3</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="M67" t="n">
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="O67" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="P67" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
@@ -4085,37 +4085,37 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Ty Johnson (BUF)</t>
+          <t>Craig Reynolds (DET)</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4.7</v>
+        <v>5.7</v>
       </c>
       <c r="D68" t="n">
-        <v>-16</v>
+        <v>12</v>
       </c>
       <c r="E68" t="n">
-        <v>3.2</v>
+        <v>5.3</v>
       </c>
       <c r="F68" t="n">
         <v>4</v>
       </c>
       <c r="G68" t="n">
-        <v>16.9</v>
+        <v>5.6</v>
       </c>
       <c r="H68" t="n">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="K68" t="n">
-        <v>8</v>
+        <v>18.5</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -4124,13 +4124,13 @@
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="O68" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="P68" t="n">
-        <v>11.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69">
@@ -4139,37 +4139,37 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Dalvin Cook (NYJ)</t>
+          <t>Ty Johnson (BUF)</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4.6</v>
+        <v>5.7</v>
       </c>
       <c r="D69" t="n">
-        <v>-9</v>
+        <v>-12</v>
       </c>
       <c r="E69" t="n">
-        <v>5.3</v>
+        <v>3.2</v>
       </c>
       <c r="F69" t="n">
         <v>4</v>
       </c>
       <c r="G69" t="n">
-        <v>9.800000000000001</v>
+        <v>16.9</v>
       </c>
       <c r="H69" t="n">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="K69" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -4181,10 +4181,10 @@
         <v>0.8</v>
       </c>
       <c r="O69" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="P69" t="n">
-        <v>5</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="70">
@@ -4193,37 +4193,37 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Israel Abanikanda (NYJ)</t>
+          <t>Cordarrelle Patterson (ATL)</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4.2</v>
+        <v>5.4</v>
       </c>
       <c r="D70" t="n">
-        <v>16</v>
+        <v>-2</v>
       </c>
       <c r="E70" t="n">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G70" t="n">
-        <v>2.6</v>
+        <v>10.3</v>
       </c>
       <c r="H70" t="n">
         <v>2.6</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="K70" t="n">
-        <v>11</v>
+        <v>15.8</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -4232,13 +4232,13 @@
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="O70" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="P70" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="71">
@@ -4247,37 +4247,37 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Emari Demercado (ARI)</t>
+          <t>Joshua Kelley (LAC)</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4.2</v>
+        <v>5.3</v>
       </c>
       <c r="D71" t="n">
-        <v>22</v>
+        <v>-6</v>
       </c>
       <c r="E71" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F71" t="n">
         <v>5</v>
       </c>
-      <c r="F71" t="n">
-        <v>1</v>
-      </c>
       <c r="G71" t="n">
-        <v>1.5</v>
+        <v>11.6</v>
       </c>
       <c r="H71" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>3</v>
+        <v>4.6</v>
       </c>
       <c r="K71" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
@@ -4286,13 +4286,13 @@
         <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="O71" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="P71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -4301,52 +4301,52 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Tony Jones Jr. (NO)</t>
+          <t>Jerick McKinnon (KC)</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3.6</v>
+        <v>5.2</v>
       </c>
       <c r="D72" t="n">
-        <v>-4</v>
+        <v>-12</v>
       </c>
       <c r="E72" t="n">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="F72" t="n">
         <v>3</v>
       </c>
       <c r="G72" t="n">
-        <v>7.1</v>
+        <v>15.7</v>
       </c>
       <c r="H72" t="n">
-        <v>2.4</v>
+        <v>5.2</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J72" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="K72" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
         <v>1.7</v>
       </c>
-      <c r="K72" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="L72" t="n">
-        <v>0</v>
-      </c>
-      <c r="M72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N72" t="n">
-        <v>1</v>
-      </c>
       <c r="O72" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="P72" t="n">
-        <v>5.3</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="73">
@@ -4355,37 +4355,37 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Jashaun Corbin (NYG)</t>
+          <t>Pierre Strong Jr. (CLE)</t>
         </is>
       </c>
       <c r="C73" t="n">
+        <v>5</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E73" t="n">
         <v>3.6</v>
       </c>
-      <c r="D73" t="n">
-        <v>4</v>
-      </c>
-      <c r="E73" t="n">
-        <v>1</v>
-      </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G73" t="n">
-        <v>4.3</v>
+        <v>11.9</v>
       </c>
       <c r="H73" t="n">
-        <v>4.3</v>
+        <v>2.4</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="K73" t="n">
-        <v>1</v>
+        <v>10.2</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -4394,13 +4394,13 @@
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="O73" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="P73" t="n">
-        <v>12</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="74">
@@ -4409,52 +4409,52 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Clyde Edwards-Helaire (KC)</t>
+          <t>Israel Abanikanda (NYJ)</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3.5</v>
+        <v>4.7</v>
       </c>
       <c r="D74" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E74" t="n">
+        <v>11</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H74" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>8 - 12</t>
+        </is>
+      </c>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
+      <c r="K74" t="n">
+        <v>11</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>1</v>
+      </c>
+      <c r="O74" t="n">
+        <v>2</v>
+      </c>
+      <c r="P74" t="n">
         <v>5</v>
-      </c>
-      <c r="F74" t="n">
-        <v>2</v>
-      </c>
-      <c r="G74" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>9 - 12</t>
-        </is>
-      </c>
-      <c r="J74" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K74" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L74" t="n">
-        <v>0</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0</v>
-      </c>
-      <c r="N74" t="n">
-        <v>0</v>
-      </c>
-      <c r="O74" t="n">
-        <v>0</v>
-      </c>
-      <c r="P74" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -4463,52 +4463,52 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Jaleel McLaughlin (DEN)</t>
+          <t>Dalvin Cook (NYJ)</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="D75" t="n">
-        <v>-16</v>
+        <v>-7</v>
       </c>
       <c r="E75" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="F75" t="n">
+        <v>5</v>
+      </c>
+      <c r="G75" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="H75" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>8 - 12</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K75" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O75" t="n">
         <v>1.4</v>
       </c>
-      <c r="F75" t="n">
-        <v>3</v>
-      </c>
-      <c r="G75" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="H75" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>9 - 12</t>
-        </is>
-      </c>
-      <c r="J75" t="n">
-        <v>3</v>
-      </c>
-      <c r="K75" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L75" t="n">
-        <v>0</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0</v>
-      </c>
-      <c r="N75" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O75" t="n">
-        <v>2.3</v>
-      </c>
       <c r="P75" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
@@ -4517,37 +4517,37 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Jamaal Williams (NO)</t>
+          <t>Ameer Abdullah (LV)</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="D76" t="n">
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="E76" t="n">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="F76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G76" t="n">
-        <v>8.199999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="H76" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="K76" t="n">
-        <v>6.3</v>
+        <v>5.2</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
@@ -4556,13 +4556,13 @@
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="O76" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="P76" t="n">
-        <v>4.3</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="77">
@@ -4571,37 +4571,37 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Tank Bigsby (JAC)</t>
+          <t>Chase Edmonds (TB)</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="D77" t="n">
-        <v>4</v>
+        <v>-7</v>
       </c>
       <c r="E77" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="F77" t="n">
+        <v>5</v>
+      </c>
+      <c r="G77" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>8 - 12</t>
+        </is>
+      </c>
+      <c r="J77" t="n">
         <v>3</v>
       </c>
-      <c r="G77" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>9 - 12</t>
-        </is>
-      </c>
-      <c r="J77" t="n">
-        <v>4.3</v>
-      </c>
       <c r="K77" t="n">
-        <v>10.7</v>
+        <v>5.6</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
@@ -4610,13 +4610,13 @@
         <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O77" t="n">
-        <v>0.3</v>
+        <v>1.4</v>
       </c>
       <c r="P77" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="78">
@@ -4625,37 +4625,37 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Ke'Shawn Vaughn (TB)</t>
+          <t>Raheem Blackshear (CAR)</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="D78" t="n">
-        <v>13</v>
+        <v>-6</v>
       </c>
       <c r="E78" t="n">
+        <v>2</v>
+      </c>
+      <c r="F78" t="n">
+        <v>4</v>
+      </c>
+      <c r="G78" t="n">
+        <v>8.899999999999999</v>
+      </c>
+      <c r="H78" t="n">
         <v>2.2</v>
       </c>
-      <c r="F78" t="n">
-        <v>1</v>
-      </c>
-      <c r="G78" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1.8</v>
-      </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="K78" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
@@ -4670,7 +4670,7 @@
         <v>1</v>
       </c>
       <c r="P78" t="n">
-        <v>-1</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="79">
@@ -4679,37 +4679,37 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Boston Scott (PHI)</t>
+          <t>Tank Bigsby (JAC)</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="D79" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E79" t="n">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="F79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G79" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H79" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K79" t="n">
-        <v>11</v>
+        <v>10.2</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -4721,7 +4721,7 @@
         <v>0</v>
       </c>
       <c r="O79" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="P79" t="n">
         <v>0</v>
@@ -4733,52 +4733,52 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Ameer Abdullah (LV)</t>
+          <t>Matt Breida (NYG)</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="D80" t="n">
-        <v>-19</v>
+        <v>-7</v>
       </c>
       <c r="E80" t="n">
-        <v>6.3</v>
+        <v>2</v>
       </c>
       <c r="F80" t="n">
+        <v>5</v>
+      </c>
+      <c r="G80" t="n">
+        <v>7.600000000000001</v>
+      </c>
+      <c r="H80" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>8 - 12</t>
+        </is>
+      </c>
+      <c r="J80" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K80" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O80" t="n">
+        <v>1</v>
+      </c>
+      <c r="P80" t="n">
         <v>4</v>
-      </c>
-      <c r="G80" t="n">
-        <v>9.600000000000001</v>
-      </c>
-      <c r="H80" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>9 - 12</t>
-        </is>
-      </c>
-      <c r="J80" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K80" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L80" t="n">
-        <v>0</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0</v>
-      </c>
-      <c r="N80" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="O80" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P80" t="n">
-        <v>6.8</v>
       </c>
     </row>
     <row r="81">
@@ -4787,37 +4787,37 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Kene Nwangwu (MIN)</t>
+          <t>Keaontay Ingram (ARI)</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E81" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G81" t="n">
-        <v>0.9</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="H81" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>2</v>
+        <v>4.3</v>
       </c>
       <c r="K81" t="n">
-        <v>9</v>
+        <v>6.3</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
@@ -4826,13 +4826,13 @@
         <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="O81" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="P81" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="82">
@@ -4841,37 +4841,37 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Chase Edmonds (TB)</t>
+          <t>Isaiah Spiller (LAC)</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
-        <v>-12</v>
+        <v>14</v>
       </c>
       <c r="E82" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>6.1</v>
+        <v>1.8</v>
       </c>
       <c r="H82" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J82" t="n">
         <v>3</v>
       </c>
       <c r="K82" t="n">
-        <v>5.8</v>
+        <v>3</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
@@ -4880,13 +4880,13 @@
         <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O82" t="n">
         <v>1</v>
       </c>
       <c r="P82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83">
@@ -4895,37 +4895,37 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Trayveon Williams (CIN)</t>
+          <t>Clyde Edwards-Helaire (KC)</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="D83" t="n">
-        <v>-8</v>
+        <v>5</v>
       </c>
       <c r="E83" t="n">
-        <v>6.6</v>
+        <v>4.8</v>
       </c>
       <c r="F83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G83" t="n">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="H83" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="K83" t="n">
-        <v>8.199999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L83" t="n">
         <v>0</v>
@@ -4934,13 +4934,13 @@
         <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="O83" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P83" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -4949,52 +4949,52 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Rashaad Penny (PHI)</t>
+          <t>Mike Boone (HOU)</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="D84" t="n">
-        <v>14</v>
+        <v>-7</v>
       </c>
       <c r="E84" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F84" t="n">
         <v>4</v>
       </c>
-      <c r="F84" t="n">
+      <c r="G84" t="n">
+        <v>7</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>8 - 12</t>
+        </is>
+      </c>
+      <c r="J84" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K84" t="n">
+        <v>2</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
-      <c r="G84" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>9 - 12</t>
-        </is>
-      </c>
-      <c r="J84" t="n">
-        <v>2</v>
-      </c>
-      <c r="K84" t="n">
-        <v>8</v>
-      </c>
-      <c r="L84" t="n">
-        <v>0</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0</v>
-      </c>
-      <c r="N84" t="n">
-        <v>0</v>
-      </c>
       <c r="O84" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P84" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="85">
@@ -5003,35 +5003,37 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Alec Ingold (MIA)</t>
+          <t>Boston Scott (PHI)</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="D85" t="n">
-        <v>-12</v>
-      </c>
-      <c r="E85" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="E85" t="n">
+        <v>5.5</v>
+      </c>
       <c r="F85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G85" t="n">
-        <v>5.699999999999999</v>
+        <v>3.6</v>
       </c>
       <c r="H85" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
@@ -5040,13 +5042,13 @@
         <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="O85" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="P85" t="n">
-        <v>8.5</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="86">
@@ -5055,37 +5057,37 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Keaontay Ingram (ARI)</t>
+          <t>Jashaun Corbin (NYG)</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="D86" t="n">
-        <v>10</v>
+        <v>-4</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
         <v>2</v>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="H86" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>8 - 12</t>
+        </is>
+      </c>
+      <c r="J86" t="n">
         <v>0.5</v>
       </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>9 - 12</t>
-        </is>
-      </c>
-      <c r="J86" t="n">
-        <v>5.5</v>
-      </c>
       <c r="K86" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="L86" t="n">
         <v>0</v>
@@ -5094,13 +5096,13 @@
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O86" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P86" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87">
@@ -5109,35 +5111,37 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Kyle Juszczyk (SF)</t>
+          <t>Rashaad Penny (PHI)</t>
         </is>
       </c>
       <c r="C87" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D87" t="n">
+        <v>13</v>
+      </c>
+      <c r="E87" t="n">
+        <v>4</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>8 - 12</t>
+        </is>
+      </c>
+      <c r="J87" t="n">
         <v>2</v>
       </c>
-      <c r="D87" t="n">
-        <v>-29</v>
-      </c>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="n">
-        <v>3</v>
-      </c>
-      <c r="G87" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="H87" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>9 - 12</t>
-        </is>
-      </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
       <c r="K87" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
@@ -5146,13 +5150,13 @@
         <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="O87" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="P87" t="n">
-        <v>8.699999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -5161,37 +5165,37 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Matt Breida (NYG)</t>
+          <t>Trayveon Williams (CIN)</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="D88" t="n">
-        <v>-14</v>
+        <v>-7</v>
       </c>
       <c r="E88" t="n">
-        <v>1.6</v>
+        <v>5.6</v>
       </c>
       <c r="F88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G88" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="H88" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="K88" t="n">
-        <v>3.2</v>
+        <v>7.8</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>
@@ -5200,13 +5204,13 @@
         <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="O88" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="P88" t="n">
-        <v>4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="89">
@@ -5215,37 +5219,37 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Deuce Vaughn (DAL)</t>
+          <t>Kyle Juszczyk (SF)</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="D89" t="n">
-        <v>1</v>
+        <v>-23</v>
       </c>
       <c r="E89" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G89" t="n">
-        <v>1.9</v>
+        <v>10.6</v>
       </c>
       <c r="H89" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K89" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L89" t="n">
         <v>0</v>
@@ -5254,13 +5258,13 @@
         <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O89" t="n">
         <v>1</v>
       </c>
       <c r="P89" t="n">
-        <v>11</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="90">
@@ -5269,37 +5273,35 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>DeeJay Dallas (SEA)</t>
+          <t>Alec Ingold (MIA)</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="D90" t="n">
-        <v>-7</v>
-      </c>
-      <c r="E90" t="n">
-        <v>4.7</v>
-      </c>
+        <v>-14</v>
+      </c>
+      <c r="E90" t="inlineStr"/>
       <c r="F90" t="n">
         <v>4</v>
       </c>
       <c r="G90" t="n">
-        <v>2.9</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="H90" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
         <v>0</v>
@@ -5308,13 +5310,13 @@
         <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="O90" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="P90" t="n">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="91">
@@ -5323,37 +5325,37 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Raheem Blackshear (CAR)</t>
+          <t>De'Von Achane (MIA)</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="D91" t="n">
-        <v>-12</v>
+        <v>7</v>
       </c>
       <c r="E91" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="H91" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J91" t="n">
         <v>1</v>
       </c>
       <c r="K91" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="L91" t="n">
         <v>0</v>
@@ -5362,13 +5364,13 @@
         <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="O91" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="P91" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92">
@@ -5377,37 +5379,37 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>De'Von Achane (MIA)</t>
+          <t>Ke'Shawn Vaughn (TB)</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="D92" t="n">
+        <v>2</v>
+      </c>
+      <c r="E92" t="n">
+        <v>2</v>
+      </c>
+      <c r="F92" t="n">
+        <v>2</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H92" t="n">
         <v>1</v>
       </c>
-      <c r="E92" t="n">
-        <v>1</v>
-      </c>
-      <c r="F92" t="n">
-        <v>1</v>
-      </c>
-      <c r="G92" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1.5</v>
-      </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K92" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L92" t="n">
         <v>0</v>
@@ -5416,13 +5418,13 @@
         <v>0</v>
       </c>
       <c r="N92" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O92" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P92" t="n">
-        <v>4</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="93">
@@ -5431,52 +5433,52 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Mike Boone (HOU)</t>
+          <t>DeeJay Dallas (SEA)</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="D93" t="n">
-        <v>-17</v>
+        <v>-5</v>
       </c>
       <c r="E93" t="n">
-        <v>1.5</v>
+        <v>4.7</v>
       </c>
       <c r="F93" t="n">
+        <v>5</v>
+      </c>
+      <c r="G93" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>8 - 12</t>
+        </is>
+      </c>
+      <c r="J93" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K93" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P93" t="n">
         <v>3</v>
-      </c>
-      <c r="G93" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>9 - 12</t>
-        </is>
-      </c>
-      <c r="J93" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="K93" t="n">
-        <v>1</v>
-      </c>
-      <c r="L93" t="n">
-        <v>0</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0</v>
-      </c>
-      <c r="N93" t="n">
-        <v>1</v>
-      </c>
-      <c r="O93" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P93" t="n">
-        <v>3.7</v>
       </c>
     </row>
     <row r="94">
@@ -5485,52 +5487,52 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Pierre Strong Jr. (CLE)</t>
+          <t>Andrew Beck (HOU)</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="D94" t="n">
-        <v>-9</v>
+        <v>12</v>
       </c>
       <c r="E94" t="n">
-        <v>2.5</v>
+        <v>0.3</v>
       </c>
       <c r="F94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G94" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="K94" t="n">
-        <v>3.3</v>
+        <v>0.2</v>
       </c>
       <c r="L94" t="n">
         <v>0</v>
       </c>
       <c r="M94" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N94" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="O94" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="P94" t="n">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="95">
@@ -5539,37 +5541,37 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Zach Evans (LAR)</t>
+          <t>Deuce Vaughn (DAL)</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="D95" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>1.5</v>
+        <v>-2</v>
       </c>
       <c r="F95" t="n">
         <v>2</v>
       </c>
       <c r="G95" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H95" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="K95" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="L95" t="n">
         <v>0</v>
@@ -5578,13 +5580,13 @@
         <v>0</v>
       </c>
       <c r="N95" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O95" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P95" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="96">
@@ -5593,35 +5595,37 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Keith Smith (ATL)</t>
+          <t>Kene Nwangwu (MIN)</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="D96" t="n">
-        <v>-4</v>
-      </c>
-      <c r="E96" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="E96" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F96" t="n">
         <v>2</v>
       </c>
       <c r="G96" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H96" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="L96" t="n">
         <v>0</v>
@@ -5630,13 +5634,13 @@
         <v>0</v>
       </c>
       <c r="N96" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O96" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -5645,35 +5649,37 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Nick Bawden (NYJ)</t>
+          <t>Zach Evans (LAR)</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="D97" t="n">
-        <v>-17</v>
-      </c>
-      <c r="E97" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1.5</v>
+      </c>
       <c r="F97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G97" t="n">
-        <v>3.3</v>
+        <v>0.6</v>
       </c>
       <c r="H97" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L97" t="n">
         <v>0</v>
@@ -5682,13 +5688,13 @@
         <v>0</v>
       </c>
       <c r="N97" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O97" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P97" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -5697,37 +5703,35 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Deon Jackson (NYG)</t>
+          <t>Nick Bawden (NYJ)</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D98" t="n">
-        <v>3</v>
-      </c>
-      <c r="E98" t="n">
-        <v>2</v>
-      </c>
+        <v>-12</v>
+      </c>
+      <c r="E98" t="inlineStr"/>
       <c r="F98" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G98" t="n">
-        <v>0.2</v>
+        <v>3.3</v>
       </c>
       <c r="H98" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L98" t="n">
         <v>0</v>
@@ -5736,13 +5740,13 @@
         <v>0</v>
       </c>
       <c r="N98" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="O98" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="P98" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="99">
@@ -5751,37 +5755,37 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Andrew Beck (HOU)</t>
+          <t>Deon Jackson (NYG)</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="D99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F99" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="K99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L99" t="n">
         <v>0</v>
@@ -5790,13 +5794,13 @@
         <v>0</v>
       </c>
       <c r="N99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5805,52 +5809,50 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>La'Mical Perine (KC)</t>
+          <t>C.J. Ham (MIN)</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D100" t="n">
-        <v>2</v>
-      </c>
-      <c r="E100" t="n">
+        <v>-15</v>
+      </c>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="n">
+        <v>5</v>
+      </c>
+      <c r="G100" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>8 - 12</t>
+        </is>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="P100" t="n">
         <v>1</v>
-      </c>
-      <c r="F100" t="n">
-        <v>1</v>
-      </c>
-      <c r="G100" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>9 - 12</t>
-        </is>
-      </c>
-      <c r="J100" t="n">
-        <v>1</v>
-      </c>
-      <c r="K100" t="n">
-        <v>1</v>
-      </c>
-      <c r="L100" t="n">
-        <v>0</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0</v>
-      </c>
-      <c r="N100" t="n">
-        <v>0</v>
-      </c>
-      <c r="O100" t="n">
-        <v>1</v>
-      </c>
-      <c r="P100" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -5859,52 +5861,50 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Zamir White (LV)</t>
+          <t>Alex Armah Jr. (WAS)</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D101" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E101" t="n">
-        <v>0.5</v>
-      </c>
+        <v>-10</v>
+      </c>
+      <c r="E101" t="inlineStr"/>
       <c r="F101" t="n">
         <v>3</v>
       </c>
       <c r="G101" t="n">
-        <v>0.3</v>
+        <v>2.3</v>
       </c>
       <c r="H101" t="n">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="O101" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="P101" t="n">
         <v>1</v>
-      </c>
-      <c r="L101" t="n">
-        <v>0</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0</v>
-      </c>
-      <c r="N101" t="n">
-        <v>0</v>
-      </c>
-      <c r="O101" t="n">
-        <v>0</v>
-      </c>
-      <c r="P101" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -5913,50 +5913,50 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Alex Armah Jr. (WAS)</t>
+          <t>Keith Smith (ATL)</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D102" t="n">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="n">
+        <v>3</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>8 - 12</t>
+        </is>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="P102" t="n">
         <v>2</v>
-      </c>
-      <c r="G102" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>9 - 12</t>
-        </is>
-      </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0</v>
-      </c>
-      <c r="L102" t="n">
-        <v>0</v>
-      </c>
-      <c r="M102" t="n">
-        <v>0</v>
-      </c>
-      <c r="N102" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O102" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P102" t="n">
-        <v>1.5</v>
       </c>
     </row>
     <row r="103">
@@ -5965,35 +5965,37 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Dare Ogunbowale (HOU)</t>
+          <t>Zamir White (LV)</t>
         </is>
       </c>
       <c r="C103" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F103" t="n">
+        <v>4</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H103" t="n">
         <v>0.1</v>
       </c>
-      <c r="D103" t="n">
-        <v>-21</v>
-      </c>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="n">
-        <v>3</v>
-      </c>
-      <c r="G103" t="n">
-        <v>3</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="K103" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L103" t="n">
         <v>0</v>
@@ -6017,35 +6019,37 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Khari Blasingame (CHI)</t>
+          <t>La'Mical Perine (KC)</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D104" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1</v>
+      </c>
       <c r="F104" t="n">
         <v>2</v>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J104" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K104" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L104" t="n">
         <v>0</v>
@@ -6057,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="O104" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P104" t="n">
         <v>0</v>
@@ -6069,28 +6073,28 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Chris Evans (CIN)</t>
+          <t>Hunter Luepke (DAL)</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D105" t="n">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J105" t="n">
@@ -6106,13 +6110,13 @@
         <v>0</v>
       </c>
       <c r="N105" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O105" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="P105" t="n">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="106">
@@ -6121,28 +6125,28 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Jordan Mason (SF)</t>
+          <t>Dare Ogunbowale (HOU)</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D106" t="n">
-        <v>-3</v>
+        <v>-19</v>
       </c>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="n">
         <v>3</v>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J106" t="n">
@@ -6173,18 +6177,18 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Ty Montgomery II (NE)</t>
+          <t>Chase Brown (CIN)</t>
         </is>
       </c>
       <c r="C107" t="n">
         <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
@@ -6194,7 +6198,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J107" t="n">
@@ -6213,7 +6217,7 @@
         <v>0</v>
       </c>
       <c r="O107" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="P107" t="n">
         <v>0</v>
@@ -6225,14 +6229,14 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Sean Tucker (TB)</t>
+          <t>Jonathan Ward (TEN)</t>
         </is>
       </c>
       <c r="C108" t="n">
         <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="n">
@@ -6246,7 +6250,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J108" t="n">
@@ -6277,18 +6281,18 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Chase Brown (CIN)</t>
+          <t>Ty Montgomery II (NE)</t>
         </is>
       </c>
       <c r="C109" t="n">
         <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
@@ -6298,7 +6302,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J109" t="n">
@@ -6317,7 +6321,7 @@
         <v>0</v>
       </c>
       <c r="O109" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="P109" t="n">
         <v>0</v>
@@ -6329,18 +6333,18 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Hunter Luepke (DAL)</t>
+          <t>Travis Homer (CHI)</t>
         </is>
       </c>
       <c r="C110" t="n">
         <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G110" t="n">
         <v>0</v>
@@ -6350,7 +6354,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J110" t="n">
@@ -6369,7 +6373,7 @@
         <v>0</v>
       </c>
       <c r="O110" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="P110" t="n">
         <v>0</v>
@@ -6388,11 +6392,11 @@
         <v>0</v>
       </c>
       <c r="D111" t="n">
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
@@ -6402,7 +6406,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J111" t="n">
@@ -6433,14 +6437,14 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Marlon Mack (ARI)</t>
+          <t>Jakob Johnson (LV)</t>
         </is>
       </c>
       <c r="C112" t="n">
         <v>0</v>
       </c>
       <c r="D112" t="n">
-        <v>-9</v>
+        <v>-6</v>
       </c>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="n">
@@ -6454,7 +6458,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J112" t="n">
@@ -6485,18 +6489,18 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Eric Gray (NYG)</t>
+          <t>Anthony McFarland Jr. (PIT)</t>
         </is>
       </c>
       <c r="C113" t="n">
         <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>-10</v>
+        <v>-7</v>
       </c>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
@@ -6506,7 +6510,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J113" t="n">
@@ -6537,18 +6541,18 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Austin Walter (LV)</t>
+          <t>Chris Evans (CIN)</t>
         </is>
       </c>
       <c r="C114" t="n">
         <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>-11</v>
+        <v>-8</v>
       </c>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G114" t="n">
         <v>0</v>
@@ -6558,7 +6562,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J114" t="n">
@@ -6589,14 +6593,14 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Dwayne Washington (DEN)</t>
+          <t>Henry Pearson (GB)</t>
         </is>
       </c>
       <c r="C115" t="n">
         <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>-12</v>
+        <v>-9</v>
       </c>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="n">
@@ -6610,7 +6614,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J115" t="n">
@@ -6641,18 +6645,18 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>C.J. Ham (MIN)</t>
+          <t>Godwin Igwebuike (PIT)</t>
         </is>
       </c>
       <c r="C116" t="n">
         <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>-13</v>
+        <v>-10</v>
       </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G116" t="n">
         <v>0</v>
@@ -6662,7 +6666,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J116" t="n">
@@ -6693,18 +6697,18 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Patrick Ricard (BAL)</t>
+          <t>Sean Tucker (TB)</t>
         </is>
       </c>
       <c r="C117" t="n">
         <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>-14</v>
+        <v>-11</v>
       </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G117" t="n">
         <v>0</v>
@@ -6714,7 +6718,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J117" t="n">
@@ -6733,7 +6737,7 @@
         <v>0</v>
       </c>
       <c r="O117" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="P117" t="n">
         <v>0</v>
@@ -6745,18 +6749,18 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Godwin Igwebuike (PIT)</t>
+          <t>Eric Gray (NYG)</t>
         </is>
       </c>
       <c r="C118" t="n">
         <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>-15</v>
+        <v>-12</v>
       </c>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G118" t="n">
         <v>0</v>
@@ -6766,7 +6770,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J118" t="n">
@@ -6797,18 +6801,18 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Michael Burton (DEN)</t>
+          <t>Corey Clement (ARI)</t>
         </is>
       </c>
       <c r="C119" t="n">
         <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>-16</v>
+        <v>-13</v>
       </c>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G119" t="n">
         <v>0</v>
@@ -6818,7 +6822,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J119" t="n">
@@ -6849,18 +6853,18 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Corey Clement (ARI)</t>
+          <t>Jordan Mason (SF)</t>
         </is>
       </c>
       <c r="C120" t="n">
         <v>0</v>
       </c>
       <c r="D120" t="n">
-        <v>-17</v>
+        <v>-14</v>
       </c>
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G120" t="n">
         <v>0</v>
@@ -6870,7 +6874,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J120" t="n">
@@ -6901,18 +6905,18 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Anthony McFarland Jr. (PIT)</t>
+          <t>Marlon Mack (ARI)</t>
         </is>
       </c>
       <c r="C121" t="n">
         <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>-18</v>
+        <v>-15</v>
       </c>
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G121" t="n">
         <v>0</v>
@@ -6922,7 +6926,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J121" t="n">
@@ -6953,18 +6957,18 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Nick Bellore (SEA)</t>
+          <t>Dwayne Washington (DEN)</t>
         </is>
       </c>
       <c r="C122" t="n">
         <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>-19</v>
+        <v>-16</v>
       </c>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G122" t="n">
         <v>0</v>
@@ -6974,7 +6978,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J122" t="n">
@@ -7005,18 +7009,18 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Trey Sermon (IND)</t>
+          <t>Patrick Ricard (BAL)</t>
         </is>
       </c>
       <c r="C123" t="n">
         <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>-20</v>
+        <v>-17</v>
       </c>
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
@@ -7026,7 +7030,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J123" t="n">
@@ -7045,7 +7049,7 @@
         <v>0</v>
       </c>
       <c r="O123" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="P123" t="n">
         <v>0</v>
@@ -7057,28 +7061,28 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Craig Reynolds (DET)</t>
+          <t>Jason Cabinda (DET)</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>78</v>
+        <v>-18</v>
       </c>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G124" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J124" t="n">
@@ -7109,33 +7113,51 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Brittain Brown (LV)</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr"/>
+          <t>Michael Burton (DEN)</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>0</v>
+      </c>
       <c r="D125" t="n">
-        <v>-22</v>
+        <v>-19</v>
       </c>
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G125" t="n">
         <v>0</v>
       </c>
-      <c r="H125" t="inlineStr"/>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>9 - 12</t>
-        </is>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="inlineStr"/>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
+          <t>8 - 12</t>
+        </is>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0</v>
+      </c>
+      <c r="O125" t="n">
+        <v>0</v>
+      </c>
+      <c r="P125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -7143,33 +7165,51 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Samkon Gado (TEN)</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr"/>
+          <t>Khari Blasingame (CHI)</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>0</v>
+      </c>
       <c r="D126" t="n">
-        <v>-23</v>
+        <v>-20</v>
       </c>
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
       </c>
-      <c r="H126" t="inlineStr"/>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>9 - 12</t>
-        </is>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="inlineStr"/>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
+          <t>8 - 12</t>
+        </is>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0</v>
+      </c>
+      <c r="O126" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -7177,33 +7217,51 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Xavier Omon (SF)</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr"/>
+          <t>Nick Bellore (SEA)</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>0</v>
+      </c>
       <c r="D127" t="n">
-        <v>-24</v>
+        <v>-21</v>
       </c>
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G127" t="n">
         <v>0</v>
       </c>
-      <c r="H127" t="inlineStr"/>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>9 - 12</t>
-        </is>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="inlineStr"/>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
+          <t>8 - 12</t>
+        </is>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0</v>
+      </c>
+      <c r="O127" t="n">
+        <v>0</v>
+      </c>
+      <c r="P127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -7211,33 +7269,51 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Chad Simpson (WAS)</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr"/>
+          <t>Austin Walter (LV)</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>0</v>
+      </c>
       <c r="D128" t="n">
-        <v>-25</v>
+        <v>-22</v>
       </c>
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128" t="n">
         <v>0</v>
       </c>
-      <c r="H128" t="inlineStr"/>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>9 - 12</t>
-        </is>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="inlineStr"/>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
+          <t>8 - 12</t>
+        </is>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0</v>
+      </c>
+      <c r="O128" t="n">
+        <v>0</v>
+      </c>
+      <c r="P128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -7245,33 +7321,51 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Dantrell Savage (CAR)</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr"/>
+          <t>Trey Sermon (IND)</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>0</v>
+      </c>
       <c r="D129" t="n">
-        <v>-26</v>
+        <v>-23</v>
       </c>
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G129" t="n">
         <v>0</v>
       </c>
-      <c r="H129" t="inlineStr"/>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>9 - 12</t>
-        </is>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="inlineStr"/>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
+          <t>8 - 12</t>
+        </is>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0</v>
+      </c>
+      <c r="O129" t="n">
+        <v>0</v>
+      </c>
+      <c r="P129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -7279,12 +7373,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Anthony Alridge (WAS)</t>
+          <t>Tyler Goodson (IND)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="n">
-        <v>-27</v>
+        <v>-24</v>
       </c>
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="n">
@@ -7296,7 +7390,7 @@
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J130" t="inlineStr"/>
@@ -7313,12 +7407,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Kenny Irons (CIN)</t>
+          <t>Dantrell Savage (CAR)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="n">
-        <v>-28</v>
+        <v>-25</v>
       </c>
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="n">
@@ -7330,7 +7424,7 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J131" t="inlineStr"/>
@@ -7347,12 +7441,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Garrett Mills (NE)</t>
+          <t>Anthony Alridge (WAS)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="n">
-        <v>-29</v>
+        <v>-26</v>
       </c>
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="n">
@@ -7364,7 +7458,7 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J132" t="inlineStr"/>
@@ -7381,12 +7475,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Brandon Bolden (LV)</t>
+          <t>Snoop Conner (JAC)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="n">
-        <v>-30</v>
+        <v>-27</v>
       </c>
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="n">
@@ -7398,7 +7492,7 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J133" t="inlineStr"/>
@@ -7415,12 +7509,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Shane Bannon (KC)</t>
+          <t>Kenny Irons (CIN)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="n">
-        <v>-31</v>
+        <v>-28</v>
       </c>
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="n">
@@ -7432,7 +7526,7 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J134" t="inlineStr"/>
@@ -7449,12 +7543,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Jay Finley (CIN)</t>
+          <t>Brandon Bolden (LV)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="n">
-        <v>-32</v>
+        <v>-29</v>
       </c>
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="n">
@@ -7466,7 +7560,7 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J135" t="inlineStr"/>
@@ -7483,12 +7577,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Chad Spann (HOU)</t>
+          <t>Shane Bannon (KC)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="n">
-        <v>-33</v>
+        <v>-30</v>
       </c>
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="n">
@@ -7500,7 +7594,7 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J136" t="inlineStr"/>
@@ -7517,12 +7611,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Kevin Harris (NE)</t>
+          <t>Jay Finley (CIN)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="n">
-        <v>-34</v>
+        <v>-31</v>
       </c>
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="n">
@@ -7534,7 +7628,7 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J137" t="inlineStr"/>
@@ -7551,12 +7645,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Eno Benjamin (NO)</t>
+          <t>Garrett Mills (NE)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="n">
-        <v>-35</v>
+        <v>-32</v>
       </c>
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="n">
@@ -7568,7 +7662,7 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J138" t="inlineStr"/>
@@ -7585,12 +7679,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Tyler Goodson (IND)</t>
+          <t>Chad Spann (HOU)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="n">
-        <v>-36</v>
+        <v>-33</v>
       </c>
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="n">
@@ -7602,7 +7696,7 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J139" t="inlineStr"/>
@@ -7619,12 +7713,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>J.K. Dobbins (BAL)</t>
+          <t>Chad Simpson (WAS)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="n">
-        <v>-37</v>
+        <v>-34</v>
       </c>
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="n">
@@ -7636,7 +7730,7 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J140" t="inlineStr"/>
@@ -7653,12 +7747,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Jakob Johnson (LV)</t>
+          <t>Kevin Harris (NE)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="n">
-        <v>-38</v>
+        <v>-35</v>
       </c>
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="n">
@@ -7670,7 +7764,7 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J141" t="inlineStr"/>
@@ -7687,12 +7781,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Madison Hedgecock (NYG)</t>
+          <t>Tyrion Davis-Price (SF)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="n">
-        <v>-39</v>
+        <v>-36</v>
       </c>
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="n">
@@ -7704,7 +7798,7 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J142" t="inlineStr"/>
@@ -7721,12 +7815,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Tarik Cohen (CAR)</t>
+          <t>Samkon Gado (TEN)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="n">
-        <v>-40</v>
+        <v>-37</v>
       </c>
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="n">
@@ -7738,7 +7832,7 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J143" t="inlineStr"/>
@@ -7755,12 +7849,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Tyrion Davis-Price (SF)</t>
+          <t>Damien Harris (BUF)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="n">
-        <v>-41</v>
+        <v>-38</v>
       </c>
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="n">
@@ -7772,7 +7866,7 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J144" t="inlineStr"/>
@@ -7789,12 +7883,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Melvin Gordon III (BAL)</t>
+          <t>Madison Hedgecock (NYG)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="n">
-        <v>-42</v>
+        <v>-39</v>
       </c>
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="n">
@@ -7806,7 +7900,7 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J145" t="inlineStr"/>
@@ -7823,12 +7917,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Jonathan Williams (WAS)</t>
+          <t>Melvin Gordon III (BAL)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="n">
-        <v>-43</v>
+        <v>-40</v>
       </c>
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="n">
@@ -7840,7 +7934,7 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J146" t="inlineStr"/>
@@ -7857,12 +7951,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Kenyan Drake (CLE)</t>
+          <t>Jonathan Williams (WAS)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="n">
-        <v>-44</v>
+        <v>-41</v>
       </c>
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="n">
@@ -7874,7 +7968,7 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J147" t="inlineStr"/>
@@ -7891,12 +7985,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Tim Flanders (NO)</t>
+          <t>Kenyan Drake (CLE)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="n">
-        <v>-45</v>
+        <v>-42</v>
       </c>
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="n">
@@ -7908,7 +8002,7 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J148" t="inlineStr"/>
@@ -7925,12 +8019,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Willie Carter (CHI)</t>
+          <t>Tim Flanders (NO)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="n">
-        <v>-46</v>
+        <v>-43</v>
       </c>
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="n">
@@ -7942,7 +8036,7 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J149" t="inlineStr"/>
@@ -7959,12 +8053,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Brennan Clay (DEN)</t>
+          <t>Willie Carter (CHI)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="n">
-        <v>-47</v>
+        <v>-44</v>
       </c>
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="n">
@@ -7976,7 +8070,7 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J150" t="inlineStr"/>
@@ -7993,12 +8087,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Nick Chubb (CLE)</t>
+          <t>Brennan Clay (DEN)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="n">
-        <v>-48</v>
+        <v>-45</v>
       </c>
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="n">
@@ -8010,7 +8104,7 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J151" t="inlineStr"/>
@@ -8027,12 +8121,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Myles Gaskin (MIN)</t>
+          <t>Nick Chubb (CLE)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="n">
-        <v>-49</v>
+        <v>-46</v>
       </c>
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="n">
@@ -8044,7 +8138,7 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J152" t="inlineStr"/>
@@ -8061,12 +8155,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Nyheim Hines (BUF)</t>
+          <t>Myles Gaskin (MIN)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="n">
-        <v>-50</v>
+        <v>-47</v>
       </c>
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="n">
@@ -8078,7 +8172,7 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J153" t="inlineStr"/>
@@ -8095,12 +8189,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Jason Cabinda (DET)</t>
+          <t>Xavier Omon (SF)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="n">
-        <v>-51</v>
+        <v>-48</v>
       </c>
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="n">
@@ -8112,7 +8206,7 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J154" t="inlineStr"/>
@@ -8129,12 +8223,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Taquan Mizzell (NYG)</t>
+          <t>Nyheim Hines (BUF)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="n">
-        <v>-52</v>
+        <v>-49</v>
       </c>
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="n">
@@ -8146,7 +8240,7 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J155" t="inlineStr"/>
@@ -8163,12 +8257,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Leonard Fournette (BUF)</t>
+          <t>Taquan Mizzell (NYG)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="n">
-        <v>-53</v>
+        <v>-50</v>
       </c>
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="n">
@@ -8180,7 +8274,7 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
@@ -8197,12 +8291,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Jeremy McNichols (SF)</t>
+          <t>Leonard Fournette (BUF)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="n">
-        <v>-54</v>
+        <v>-51</v>
       </c>
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="n">
@@ -8214,7 +8308,7 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J157" t="inlineStr"/>
@@ -8231,12 +8325,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Snoop Conner (JAC)</t>
+          <t>Jeremy McNichols (SF)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="n">
-        <v>-55</v>
+        <v>-52</v>
       </c>
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="n">
@@ -8248,7 +8342,7 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J158" t="inlineStr"/>
@@ -8265,12 +8359,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>J.J. Taylor (HOU)</t>
+          <t>Tarik Cohen (CAR)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="n">
-        <v>-56</v>
+        <v>-53</v>
       </c>
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="n">
@@ -8282,7 +8376,7 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J159" t="inlineStr"/>
@@ -8299,12 +8393,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Jacob Saylors (ATL)</t>
+          <t>Sincere McCormick (LV)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="n">
-        <v>-57</v>
+        <v>-54</v>
       </c>
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="n">
@@ -8316,7 +8410,7 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J160" t="inlineStr"/>
@@ -8333,12 +8427,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Robert Burns (CHI)</t>
+          <t>Avery Williams (ATL)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="n">
-        <v>-58</v>
+        <v>-55</v>
       </c>
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="n">
@@ -8350,7 +8444,7 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J161" t="inlineStr"/>
@@ -8367,12 +8461,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Zavier Scott (IND)</t>
+          <t>Bryant Koback (SEA)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="n">
-        <v>-59</v>
+        <v>-56</v>
       </c>
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="n">
@@ -8384,7 +8478,7 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J162" t="inlineStr"/>
@@ -8401,12 +8495,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Deneric Prince (KC)</t>
+          <t>Eno Benjamin (NO)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="n">
-        <v>-60</v>
+        <v>-57</v>
       </c>
       <c r="E163" t="inlineStr"/>
       <c r="F163" t="n">
@@ -8418,7 +8512,7 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J163" t="inlineStr"/>
@@ -8435,12 +8529,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Jordan Mims (NO)</t>
+          <t>Hassan Haskins (TEN)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="n">
-        <v>-61</v>
+        <v>-58</v>
       </c>
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="n">
@@ -8452,7 +8546,7 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J164" t="inlineStr"/>
@@ -8469,12 +8563,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Chris Brooks (MIA)</t>
+          <t>Tyler Badie (DEN)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="n">
-        <v>-62</v>
+        <v>-59</v>
       </c>
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="n">
@@ -8486,7 +8580,7 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J165" t="inlineStr"/>
@@ -8503,12 +8597,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Owen Wright (BAL)</t>
+          <t>Ronnie Rivers (LAR)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="n">
-        <v>-63</v>
+        <v>-60</v>
       </c>
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="n">
@@ -8520,7 +8614,7 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J166" t="inlineStr"/>
@@ -8537,12 +8631,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Ellis Merriweather (GB)</t>
+          <t>DeWayne McBride (MIN)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="n">
-        <v>-64</v>
+        <v>-61</v>
       </c>
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="n">
@@ -8554,7 +8648,7 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
@@ -8571,12 +8665,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Mohamed Ibrahim (DET)</t>
+          <t>Troy Hairston II (HOU)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="n">
-        <v>-65</v>
+        <v>-62</v>
       </c>
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="n">
@@ -8588,7 +8682,7 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J168" t="inlineStr"/>
@@ -8605,12 +8699,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Evan Hull (IND)</t>
+          <t>Zonovan Knight (DET)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="n">
-        <v>-66</v>
+        <v>-63</v>
       </c>
       <c r="E169" t="inlineStr"/>
       <c r="F169" t="n">
@@ -8622,7 +8716,7 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J169" t="inlineStr"/>
@@ -8639,12 +8733,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Bryant Koback (SEA)</t>
+          <t>Julius Chestnut (TEN)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="n">
-        <v>-67</v>
+        <v>-64</v>
       </c>
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="n">
@@ -8656,7 +8750,7 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J170" t="inlineStr"/>
@@ -8673,12 +8767,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>JaMycal Hasty (NE)</t>
+          <t>Malik Davis (DAL)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="n">
-        <v>-68</v>
+        <v>-65</v>
       </c>
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="n">
@@ -8690,7 +8784,7 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J171" t="inlineStr"/>
@@ -8707,12 +8801,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Hassan Haskins (TEN)</t>
+          <t>Brittain Brown (LV)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="n">
-        <v>-69</v>
+        <v>-66</v>
       </c>
       <c r="E172" t="inlineStr"/>
       <c r="F172" t="n">
@@ -8724,7 +8818,7 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J172" t="inlineStr"/>
@@ -8741,12 +8835,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Tyler Badie (DEN)</t>
+          <t>JaMycal Hasty (NE)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="n">
-        <v>-70</v>
+        <v>-67</v>
       </c>
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="n">
@@ -8758,7 +8852,7 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J173" t="inlineStr"/>
@@ -8775,12 +8869,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Ronnie Rivers (LAR)</t>
+          <t>Mohamed Ibrahim (DET)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="n">
-        <v>-71</v>
+        <v>-68</v>
       </c>
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="n">
@@ -8792,7 +8886,7 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J174" t="inlineStr"/>
@@ -8809,12 +8903,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>DeWayne McBride (MIN)</t>
+          <t>Jaret Patterson (LAC)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr"/>
       <c r="D175" t="n">
-        <v>-72</v>
+        <v>-69</v>
       </c>
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="n">
@@ -8826,7 +8920,7 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J175" t="inlineStr"/>
@@ -8843,12 +8937,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Troy Hairston II (HOU)</t>
+          <t>Demetric Felton Jr. (CIN)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="n">
-        <v>-73</v>
+        <v>-70</v>
       </c>
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="n">
@@ -8860,7 +8954,7 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J176" t="inlineStr"/>
@@ -8877,12 +8971,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Zonovan Knight (DET)</t>
+          <t>J.K. Dobbins (BAL)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="n">
-        <v>-74</v>
+        <v>-71</v>
       </c>
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="n">
@@ -8894,7 +8988,7 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J177" t="inlineStr"/>
@@ -8911,12 +9005,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Malik Davis (DAL)</t>
+          <t>Qadree Ollison (PIT)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="n">
-        <v>-75</v>
+        <v>-72</v>
       </c>
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="n">
@@ -8928,7 +9022,7 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J178" t="inlineStr"/>
@@ -8945,12 +9039,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Xazavian Valladay (NYJ)</t>
+          <t>Mike Weber (NYG)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="n">
-        <v>-76</v>
+        <v>-73</v>
       </c>
       <c r="E179" t="inlineStr"/>
       <c r="F179" t="n">
@@ -8962,7 +9056,7 @@
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J179" t="inlineStr"/>
@@ -8979,12 +9073,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Henry Pearson (GB)</t>
+          <t>Ellis Merriweather (GB)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="n">
-        <v>-77</v>
+        <v>-74</v>
       </c>
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="n">
@@ -8996,7 +9090,7 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J180" t="inlineStr"/>
@@ -9013,12 +9107,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Gary Brightwell (NYG)</t>
+          <t>Patrick Laird (TB)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="n">
-        <v>-78</v>
+        <v>-75</v>
       </c>
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="n">
@@ -9030,7 +9124,7 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J181" t="inlineStr"/>
@@ -9052,7 +9146,7 @@
       </c>
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="n">
-        <v>-79</v>
+        <v>-76</v>
       </c>
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="n">
@@ -9064,7 +9158,7 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J182" t="inlineStr"/>
@@ -9081,12 +9175,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Isaiah Spiller (LAC)</t>
+          <t>Spencer Brown (CAR)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="n">
-        <v>-80</v>
+        <v>-77</v>
       </c>
       <c r="E183" t="inlineStr"/>
       <c r="F183" t="n">
@@ -9098,7 +9192,7 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J183" t="inlineStr"/>
@@ -9115,12 +9209,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Avery Williams (ATL)</t>
+          <t>Javian Hawkins (TEN)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="n">
-        <v>-81</v>
+        <v>-78</v>
       </c>
       <c r="E184" t="inlineStr"/>
       <c r="F184" t="n">
@@ -9132,7 +9226,7 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J184" t="inlineStr"/>
@@ -9149,12 +9243,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Sincere McCormick (LV)</t>
+          <t>J.J. Taylor (HOU)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="n">
-        <v>-82</v>
+        <v>-79</v>
       </c>
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="n">
@@ -9166,7 +9260,7 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J185" t="inlineStr"/>
@@ -9183,12 +9277,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Patrick Laird (TB)</t>
+          <t>Lew Nichols III (PHI)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="n">
-        <v>-83</v>
+        <v>-80</v>
       </c>
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="n">
@@ -9200,7 +9294,7 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J186" t="inlineStr"/>
@@ -9217,12 +9311,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Spencer Brown (CAR)</t>
+          <t>Elijah Dotson (LAC)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="n">
-        <v>-84</v>
+        <v>-81</v>
       </c>
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="n">
@@ -9234,7 +9328,7 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J187" t="inlineStr"/>
@@ -9251,12 +9345,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Damien Harris (BUF)</t>
+          <t>Jack Colletto (PIT)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="n">
-        <v>-85</v>
+        <v>-82</v>
       </c>
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="n">
@@ -9268,7 +9362,7 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J188" t="inlineStr"/>
@@ -9285,12 +9379,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Travis Homer (CHI)</t>
+          <t>Carlos Washington Jr. (ATL)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="n">
-        <v>-86</v>
+        <v>-83</v>
       </c>
       <c r="E189" t="inlineStr"/>
       <c r="F189" t="n">
@@ -9302,7 +9396,7 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J189" t="inlineStr"/>
@@ -9319,12 +9413,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Mike Weber (NYG)</t>
+          <t>Kenny McIntosh (SEA)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="n">
-        <v>-87</v>
+        <v>-84</v>
       </c>
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="n">
@@ -9336,7 +9430,7 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J190" t="inlineStr"/>
@@ -9353,12 +9447,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Kenny McIntosh (SEA)</t>
+          <t>Xazavian Valladay (NYJ)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="n">
-        <v>-88</v>
+        <v>-85</v>
       </c>
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="n">
@@ -9370,7 +9464,7 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J191" t="inlineStr"/>
@@ -9387,12 +9481,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Qadree Ollison (PIT)</t>
+          <t>Evan Hull (IND)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="n">
-        <v>-89</v>
+        <v>-86</v>
       </c>
       <c r="E192" t="inlineStr"/>
       <c r="F192" t="n">
@@ -9404,7 +9498,7 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J192" t="inlineStr"/>
@@ -9421,12 +9515,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Jermar Jefferson (DET)</t>
+          <t>Jacob Saylors (ATL)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr"/>
       <c r="D193" t="n">
-        <v>-90</v>
+        <v>-87</v>
       </c>
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="n">
@@ -9438,7 +9532,7 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J193" t="inlineStr"/>
@@ -9455,12 +9549,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Jonathan Ward (TEN)</t>
+          <t>Robert Burns (CHI)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="n">
-        <v>-91</v>
+        <v>-88</v>
       </c>
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="n">
@@ -9472,7 +9566,7 @@
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J194" t="inlineStr"/>
@@ -9489,12 +9583,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Javian Hawkins (TEN)</t>
+          <t>Zavier Scott (IND)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="n">
-        <v>-92</v>
+        <v>-89</v>
       </c>
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="n">
@@ -9506,7 +9600,7 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J195" t="inlineStr"/>
@@ -9523,12 +9617,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Lew Nichols III (PHI)</t>
+          <t>Deneric Prince (KC)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="n">
-        <v>-93</v>
+        <v>-90</v>
       </c>
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="n">
@@ -9540,7 +9634,7 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J196" t="inlineStr"/>
@@ -9557,12 +9651,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Elijah Dotson (LAC)</t>
+          <t>Jordan Mims (NO)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="n">
-        <v>-94</v>
+        <v>-91</v>
       </c>
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="n">
@@ -9574,7 +9668,7 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J197" t="inlineStr"/>
@@ -9591,12 +9685,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Jack Colletto (PIT)</t>
+          <t>Chris Brooks (MIA)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr"/>
       <c r="D198" t="n">
-        <v>-95</v>
+        <v>-92</v>
       </c>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="n">
@@ -9608,7 +9702,7 @@
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J198" t="inlineStr"/>
@@ -9625,12 +9719,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Carlos Washington Jr. (ATL)</t>
+          <t>Owen Wright (BAL)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr"/>
       <c r="D199" t="n">
-        <v>-96</v>
+        <v>-93</v>
       </c>
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="n">
@@ -9642,7 +9736,7 @@
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J199" t="inlineStr"/>
@@ -9659,12 +9753,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Jaret Patterson (LAC)</t>
+          <t>Gary Brightwell (NYG)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr"/>
       <c r="D200" t="n">
-        <v>-97</v>
+        <v>-94</v>
       </c>
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="n">
@@ -9676,7 +9770,7 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J200" t="inlineStr"/>
@@ -9693,12 +9787,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Demetric Felton Jr. (CIN)</t>
+          <t>Jermar Jefferson (DET)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr"/>
       <c r="D201" t="n">
-        <v>-98</v>
+        <v>-95</v>
       </c>
       <c r="E201" t="inlineStr"/>
       <c r="F201" t="n">
@@ -9710,7 +9804,7 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
-          <t>9 - 12</t>
+          <t>8 - 12</t>
         </is>
       </c>
       <c r="J201" t="inlineStr"/>
@@ -9721,40 +9815,6 @@
       <c r="O201" t="inlineStr"/>
       <c r="P201" t="inlineStr"/>
     </row>
-    <row r="202">
-      <c r="A202" t="n">
-        <v>201</v>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>Julius Chestnut (TEN)</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr"/>
-      <c r="D202" t="n">
-        <v>-99</v>
-      </c>
-      <c r="E202" t="inlineStr"/>
-      <c r="F202" t="n">
-        <v>0</v>
-      </c>
-      <c r="G202" t="n">
-        <v>0</v>
-      </c>
-      <c r="H202" t="inlineStr"/>
-      <c r="I202" t="inlineStr">
-        <is>
-          <t>9 - 12</t>
-        </is>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="inlineStr"/>
-      <c r="N202" t="inlineStr"/>
-      <c r="O202" t="inlineStr"/>
-      <c r="P202" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
